--- a/loesite/LoETemplate/Security LoE Template v0.2.xlsx
+++ b/loesite/LoETemplate/Security LoE Template v0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyuan/Documents/python-new-code/LoEGenerator/loesite/LoETemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5871CCE6-2915-D249-A45B-B040ADAECD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028715A6-4BDE-8B49-BF49-23C76AA14FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" activeTab="1" xr2:uid="{DD2A946F-6D3A-7849-BD37-46E8930633EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{DD2A946F-6D3A-7849-BD37-46E8930633EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Stealthwatch" sheetId="7" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
   <si>
     <t>Customer Details</t>
   </si>
@@ -301,9 +301,6 @@
     <t xml:space="preserve"> - SSL decryption  (optional)</t>
   </si>
   <si>
-    <t xml:space="preserve"> - ISE Integration (optional)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Trusetsec (optional)</t>
   </si>
   <si>
@@ -362,6 +359,15 @@
   </si>
   <si>
     <t>NCE days:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - IPS Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Cisco On-prem AMP and/or TG integration (option)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - AAA and Realm Integration (optional)</t>
   </si>
 </sst>
 </file>
@@ -521,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,8 +648,14 @@
         <bgColor rgb="FF8064A2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor rgb="FFE4DFEC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1336,6 +1348,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF5B9BD5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1A0C7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1A0C7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1A0C7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB1A0C7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1344,7 +1397,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1406,7 +1459,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1471,6 +1523,7 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="12" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1495,6 +1548,9 @@
     <xf numFmtId="1" fontId="11" fillId="12" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency 2" xfId="2" xr:uid="{5BF5FB18-9537-9E42-8E5D-856443C9D147}"/>
@@ -2197,8 +2253,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD577325-49DC-944A-8FF0-B63B4E2F4574}" name="Table2246344323" displayName="Table2246344323" ref="B85:F97" totalsRowCount="1" headerRowBorderDxfId="11">
-  <autoFilter ref="B85:F96" xr:uid="{5B630F52-ADCF-1341-8AF7-58AA0CBFFBE5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD577325-49DC-944A-8FF0-B63B4E2F4574}" name="Table2246344323" displayName="Table2246344323" ref="B87:F99" totalsRowCount="1" headerRowBorderDxfId="11">
+  <autoFilter ref="B87:F98" xr:uid="{5B630F52-ADCF-1341-8AF7-58AA0CBFFBE5}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FF7EA73A-C6DB-644C-A092-586BFF46832C}" name="Milestone" totalsRowDxfId="10"/>
     <tableColumn id="2" xr3:uid="{FE952FCA-4449-A549-9C96-88B6742CA4C1}" name="Activity" totalsRowDxfId="9"/>
@@ -2206,7 +2262,7 @@
       <calculatedColumnFormula>SUM(#REF!*cxc_pm_loading)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{AC5004FA-1FBA-CE48-BF2C-099BF6AB6B32}" name="T&amp;E" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
-      <calculatedColumnFormula>(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</calculatedColumnFormula>
+      <calculatedColumnFormula>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{4E49E307-6E24-7749-B44A-E696E6FC09D1}" name="Total Price" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
@@ -2513,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D050ED-9275-AD4B-88CD-E164C58F1F52}">
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71:C77"/>
+    <sheetView topLeftCell="A37" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2527,22 +2583,21 @@
     <col min="4" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="4" customWidth="1"/>
-    <col min="8" max="9" width="12.1640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="15" style="4" customWidth="1"/>
     <col min="18" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="49"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="104"/>
-      <c r="L2" s="49"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
@@ -2551,54 +2606,54 @@
       <c r="C3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="49"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="49"/>
+        <v>80</v>
+      </c>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="L5" s="49"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="L6" s="49"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="L7" s="49"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="L8" s="87"/>
-      <c r="M8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="85"/>
     </row>
     <row r="9" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="87"/>
-      <c r="M9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="85"/>
     </row>
     <row r="10" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="87"/>
-      <c r="O10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="85"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
@@ -2606,10 +2661,10 @@
       <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="96" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -2633,90 +2688,90 @@
       <c r="L11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="87"/>
-      <c r="O11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="85"/>
     </row>
     <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="18"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="96"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="22"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="24"/>
       <c r="L12" s="25"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="85"/>
     </row>
     <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="18"/>
-      <c r="D13" s="93"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="19"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27"/>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="24"/>
       <c r="L13" s="25"/>
       <c r="M13" s="28"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="86"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="85"/>
     </row>
     <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="93"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="19"/>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
       <c r="H14" s="22"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="24"/>
       <c r="L14" s="25"/>
       <c r="M14" s="28"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="86"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="85"/>
     </row>
     <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="19"/>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="28"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="86"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="85"/>
     </row>
     <row r="16" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="93"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="19"/>
       <c r="F16" s="29"/>
       <c r="G16" s="30"/>
       <c r="H16" s="22">
         <v>1</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="99">
+        <f>(J16*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="23">
         <f>SUM(D16:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="24">
-        <f>I16/8</f>
         <v>0</v>
       </c>
       <c r="K16" s="105">
@@ -2725,113 +2780,113 @@
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="28"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="86"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="85"/>
     </row>
     <row r="17" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
       <c r="C17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="93"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="19"/>
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
       <c r="H17" s="22">
         <v>1</v>
       </c>
-      <c r="I17" s="23">
-        <f>SUM(D17:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="24">
-        <f t="shared" ref="J17:J18" si="0">I17/8</f>
+      <c r="I17" s="99">
+        <f t="shared" ref="I17:I18" si="0">(J17*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="23">
+        <f t="shared" ref="J17:J18" si="1">SUM(D17:E17)</f>
         <v>0</v>
       </c>
       <c r="K17" s="106"/>
       <c r="L17" s="25"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="86"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="85"/>
     </row>
     <row r="18" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="93"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="19"/>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
       <c r="H18" s="22">
         <v>1</v>
       </c>
-      <c r="I18" s="23">
-        <f>SUM(D18:E18)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="24">
+      <c r="I18" s="99">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="107"/>
       <c r="L18" s="25"/>
       <c r="M18" s="28"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="86"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="85"/>
     </row>
     <row r="19" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="93"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="19"/>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="24"/>
       <c r="L19" s="25"/>
       <c r="M19" s="28"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="86"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="85"/>
     </row>
     <row r="20" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="93"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="19"/>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="24"/>
       <c r="L20" s="25"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="86"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="85"/>
     </row>
     <row r="21" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="93"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="19"/>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
       <c r="H21" s="22">
         <v>2</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="99">
+        <f t="shared" ref="I21:I25" si="2">(J21*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="23">
         <f>SUM(D21:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="24">
-        <f t="shared" ref="J21:J25" si="1">I21/8</f>
         <v>0</v>
       </c>
       <c r="K21" s="105">
@@ -2840,163 +2895,163 @@
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="86"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="85"/>
     </row>
     <row r="22" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="93"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="19"/>
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
       <c r="H22" s="22">
         <v>2</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="23">
         <f>SUM(D22:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="106"/>
       <c r="L22" s="25"/>
       <c r="M22" s="28"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="86"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="85"/>
     </row>
     <row r="23" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
       <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="93"/>
+      <c r="D23" s="92"/>
       <c r="E23" s="19"/>
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
       <c r="H23" s="22">
         <v>2</v>
       </c>
-      <c r="I23" s="23">
-        <f>SUM(D23:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="24">
-        <f t="shared" si="1"/>
+      <c r="I23" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="23">
+        <f t="shared" ref="J23:J25" si="3">SUM(D23:E23)</f>
         <v>0</v>
       </c>
       <c r="K23" s="106"/>
       <c r="L23" s="25"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="86"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="85"/>
     </row>
     <row r="24" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="93"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="19"/>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
       <c r="H24" s="22">
         <v>2</v>
       </c>
-      <c r="I24" s="23">
-        <f>SUM(D24:E24)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="24">
-        <f t="shared" si="1"/>
+      <c r="I24" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="23">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K24" s="106"/>
       <c r="L24" s="25"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="86"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="85"/>
     </row>
     <row r="25" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="93"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="19"/>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
       <c r="H25" s="22">
         <v>0</v>
       </c>
-      <c r="I25" s="23">
-        <f>SUM(D25:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="24">
-        <f t="shared" si="1"/>
+      <c r="I25" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="23">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K25" s="106"/>
       <c r="L25" s="25"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="86"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="85"/>
     </row>
     <row r="26" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="93"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="19"/>
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="47"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="25"/>
       <c r="M26" s="28"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="86"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="85"/>
     </row>
     <row r="27" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="93"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="19"/>
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="86"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="85"/>
     </row>
     <row r="28" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="93"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="19"/>
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
       <c r="H28" s="22">
         <v>3</v>
       </c>
-      <c r="I28" s="23">
-        <f>SUM(D28:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="24">
-        <f t="shared" ref="J28:J31" si="2">I28/8</f>
+      <c r="I28" s="99">
+        <f t="shared" ref="I28:I31" si="4">(J28*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="23">
+        <f t="shared" ref="J28:J31" si="5">SUM(D28:E28)</f>
         <v>0</v>
       </c>
       <c r="K28" s="105">
@@ -3005,139 +3060,139 @@
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="28"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="86"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="85"/>
     </row>
     <row r="29" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="93"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="19"/>
       <c r="F29" s="29"/>
       <c r="G29" s="30"/>
       <c r="H29" s="22">
         <v>3</v>
       </c>
-      <c r="I29" s="23">
-        <f>SUM(D29:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="24">
-        <f t="shared" si="2"/>
+      <c r="I29" s="99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="23">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K29" s="106"/>
       <c r="L29" s="25"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="86"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="85"/>
     </row>
     <row r="30" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="93"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="19"/>
       <c r="F30" s="29"/>
       <c r="G30" s="30"/>
       <c r="H30" s="22">
         <v>3</v>
       </c>
-      <c r="I30" s="23">
-        <f>SUM(D30:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="24">
-        <f t="shared" si="2"/>
+      <c r="I30" s="99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="23">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K30" s="106"/>
       <c r="L30" s="25"/>
       <c r="M30" s="28"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="86"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="85"/>
     </row>
     <row r="31" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="C31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="93"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="19"/>
       <c r="F31" s="29"/>
       <c r="G31" s="30"/>
       <c r="H31" s="22">
         <v>3</v>
       </c>
-      <c r="I31" s="23">
-        <f>SUM(D31:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="24">
-        <f t="shared" si="2"/>
+      <c r="I31" s="99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="23">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K31" s="106"/>
       <c r="L31" s="25"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="86"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="85"/>
     </row>
     <row r="32" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="93"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="19"/>
       <c r="F32" s="29"/>
       <c r="G32" s="30"/>
       <c r="H32" s="22"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="24"/>
       <c r="L32" s="25"/>
       <c r="M32" s="28"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="86"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="85"/>
     </row>
     <row r="33" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="93"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="19"/>
       <c r="F33" s="29"/>
       <c r="G33" s="30"/>
       <c r="H33" s="22"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="24"/>
       <c r="L33" s="25"/>
       <c r="M33" s="28"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="86"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="85"/>
     </row>
     <row r="34" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="93"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="19"/>
       <c r="F34" s="29"/>
       <c r="G34" s="30"/>
       <c r="H34" s="22">
         <v>4</v>
       </c>
-      <c r="I34" s="23">
-        <f>SUM(D34:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="24">
-        <f t="shared" ref="J34:J37" si="3">I34/8</f>
+      <c r="I34" s="99">
+        <f t="shared" ref="I34:I37" si="6">(J34*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="23">
+        <f t="shared" ref="J34:J37" si="7">SUM(D34:E34)</f>
         <v>0</v>
       </c>
       <c r="K34" s="105">
@@ -3146,157 +3201,157 @@
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="28"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="86"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="85"/>
     </row>
     <row r="35" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="93"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="19"/>
       <c r="F35" s="29"/>
       <c r="G35" s="30"/>
       <c r="H35" s="22">
         <v>4</v>
       </c>
-      <c r="I35" s="23">
-        <f>SUM(D35:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="24">
-        <f t="shared" si="3"/>
+      <c r="I35" s="99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K35" s="106"/>
       <c r="L35" s="25"/>
       <c r="M35" s="28"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="86"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="85"/>
     </row>
     <row r="36" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="C36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="93"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="19"/>
       <c r="F36" s="29"/>
       <c r="G36" s="30"/>
       <c r="H36" s="22">
         <v>4</v>
       </c>
-      <c r="I36" s="23">
-        <f>SUM(D36:E36)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="24">
-        <f t="shared" si="3"/>
+      <c r="I36" s="99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K36" s="106"/>
       <c r="L36" s="25"/>
       <c r="M36" s="28"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="86"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="85"/>
     </row>
     <row r="37" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="C37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="93"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="19"/>
       <c r="F37" s="29"/>
       <c r="G37" s="30"/>
       <c r="H37" s="22">
         <v>4</v>
       </c>
-      <c r="I37" s="23">
-        <f>SUM(D37:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="24">
-        <f t="shared" si="3"/>
+      <c r="I37" s="99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K37" s="107"/>
       <c r="L37" s="25"/>
       <c r="M37" s="28"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="86"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="85"/>
     </row>
     <row r="38" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="93"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="19"/>
       <c r="F38" s="29"/>
       <c r="G38" s="30"/>
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="24"/>
       <c r="L38" s="25"/>
       <c r="M38" s="28"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="86"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="85"/>
     </row>
     <row r="39" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="11"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="93"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="19"/>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
       <c r="H39" s="22"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="24"/>
       <c r="L39" s="25"/>
       <c r="M39" s="28"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="86"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="85"/>
     </row>
     <row r="40" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="11"/>
       <c r="C40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="93"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="19"/>
       <c r="F40" s="29"/>
       <c r="G40" s="30"/>
       <c r="H40" s="22"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="24"/>
       <c r="L40" s="25"/>
       <c r="M40" s="28"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="86"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="85"/>
     </row>
     <row r="41" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="11"/>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="93"/>
+      <c r="D41" s="92"/>
       <c r="E41" s="19"/>
       <c r="F41" s="29"/>
       <c r="G41" s="30"/>
       <c r="H41" s="22">
         <v>5</v>
       </c>
-      <c r="I41" s="23">
-        <f>SUM(D41:E41)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="24">
-        <f t="shared" ref="J41:J42" si="4">I41/8</f>
+      <c r="I41" s="99">
+        <f t="shared" ref="I41:I46" si="8">(J41*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="23">
+        <f t="shared" ref="J41:J46" si="9">SUM(D41:E41)</f>
         <v>0</v>
       </c>
       <c r="K41" s="105">
@@ -3305,606 +3360,654 @@
       </c>
       <c r="L41" s="25"/>
       <c r="M41" s="28"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="86"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="85"/>
     </row>
     <row r="42" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="11"/>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="93"/>
+      <c r="D42" s="92"/>
       <c r="E42" s="19"/>
       <c r="F42" s="29"/>
       <c r="G42" s="30"/>
       <c r="H42" s="22">
         <v>5</v>
       </c>
-      <c r="I42" s="23">
-        <f>SUM(D42:E42)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="24">
-        <f t="shared" si="4"/>
+      <c r="I42" s="99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K42" s="106"/>
       <c r="L42" s="25"/>
       <c r="M42" s="28"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="86"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="85"/>
     </row>
     <row r="43" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="11"/>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="93"/>
+      <c r="D43" s="92"/>
       <c r="E43" s="19"/>
       <c r="F43" s="29"/>
       <c r="G43" s="30"/>
       <c r="H43" s="22">
         <v>5</v>
       </c>
-      <c r="I43" s="23">
-        <f>SUM(D43:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="24">
-        <f>I43/8</f>
+      <c r="I43" s="99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K43" s="106"/>
       <c r="L43" s="25"/>
       <c r="M43" s="28"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="86"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="85"/>
     </row>
     <row r="44" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="11"/>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="93"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="19"/>
       <c r="F44" s="29"/>
       <c r="G44" s="30"/>
       <c r="H44" s="22">
         <v>5</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
+      <c r="I44" s="99">
+        <f>(J44*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K44" s="106"/>
       <c r="L44" s="25"/>
       <c r="M44" s="28"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="86"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="85"/>
     </row>
     <row r="45" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="11"/>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="93"/>
+      <c r="D45" s="92"/>
       <c r="E45" s="19"/>
       <c r="F45" s="29"/>
       <c r="G45" s="30"/>
       <c r="H45" s="22">
         <v>5</v>
       </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="24"/>
+      <c r="I45" s="99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K45" s="106"/>
       <c r="L45" s="25"/>
       <c r="M45" s="28"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="86"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="85"/>
     </row>
     <row r="46" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="11"/>
       <c r="C46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="93"/>
+      <c r="D46" s="92"/>
       <c r="E46" s="19"/>
       <c r="F46" s="29"/>
       <c r="G46" s="30"/>
       <c r="H46" s="22">
         <v>5</v>
       </c>
-      <c r="I46" s="23">
-        <f>SUM(D46:E46)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="24">
-        <f t="shared" ref="J46" si="5">I46/8</f>
+      <c r="I46" s="99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K46" s="107"/>
       <c r="L46" s="25"/>
       <c r="M46" s="28"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="86"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="85"/>
     </row>
     <row r="47" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="11"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="93"/>
+      <c r="D47" s="92"/>
       <c r="E47" s="19"/>
       <c r="F47" s="29"/>
       <c r="G47" s="30"/>
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="24"/>
+      <c r="J47" s="23"/>
       <c r="K47" s="24"/>
       <c r="L47" s="25"/>
       <c r="M47" s="28"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="86"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="85"/>
     </row>
     <row r="48" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="11"/>
       <c r="C48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="93"/>
+      <c r="D48" s="92"/>
       <c r="E48" s="19"/>
       <c r="F48" s="29"/>
       <c r="G48" s="30"/>
       <c r="H48" s="22"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="24"/>
+      <c r="J48" s="23"/>
       <c r="K48" s="33"/>
       <c r="L48" s="25"/>
       <c r="M48" s="28"/>
-      <c r="N48" s="90"/>
-      <c r="O48" s="86"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="85"/>
     </row>
     <row r="49" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="11"/>
-      <c r="C49" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="93"/>
+      <c r="C49" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="92"/>
       <c r="E49" s="19"/>
       <c r="F49" s="29"/>
       <c r="G49" s="30"/>
       <c r="H49" s="22">
         <v>6</v>
       </c>
-      <c r="I49" s="23">
-        <f>SUM(D49:E49)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="24">
-        <f t="shared" ref="J49:J54" si="6">I49/8</f>
+      <c r="I49" s="99">
+        <f t="shared" ref="I49:I58" si="10">(J49*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="23">
+        <f t="shared" ref="J49:J58" si="11">SUM(D49:E49)</f>
         <v>0</v>
       </c>
       <c r="K49" s="100">
-        <f>SUM(J49:J54)</f>
+        <f>SUM(J49:J58)</f>
         <v>0</v>
       </c>
       <c r="L49" s="25"/>
       <c r="M49" s="28"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="86"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="85"/>
     </row>
     <row r="50" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
-      <c r="C50" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="93"/>
+      <c r="C50" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="92"/>
       <c r="E50" s="19"/>
       <c r="F50" s="29"/>
       <c r="G50" s="30"/>
       <c r="H50" s="22">
         <v>6</v>
       </c>
-      <c r="I50" s="23">
-        <f>SUM(D50:E50)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="24">
-        <f t="shared" si="6"/>
+      <c r="I50" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="23">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K50" s="101"/>
       <c r="L50" s="25"/>
       <c r="M50" s="28"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="86"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="85"/>
     </row>
     <row r="51" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="11"/>
       <c r="C51" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="93"/>
+        <v>83</v>
+      </c>
+      <c r="D51" s="92"/>
       <c r="E51" s="19"/>
       <c r="F51" s="29"/>
       <c r="G51" s="30"/>
       <c r="H51" s="22">
         <v>6</v>
       </c>
-      <c r="I51" s="23">
-        <f>SUM(D51:E51)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="24">
-        <f t="shared" si="6"/>
+      <c r="I51" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="23">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K51" s="101"/>
       <c r="L51" s="25"/>
       <c r="M51" s="28"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="86"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="85"/>
     </row>
     <row r="52" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="11"/>
       <c r="C52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="93"/>
+      <c r="D52" s="92"/>
       <c r="E52" s="19"/>
       <c r="F52" s="29"/>
       <c r="G52" s="30"/>
       <c r="H52" s="22">
         <v>6</v>
       </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="24"/>
+      <c r="I52" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="K52" s="101"/>
       <c r="L52" s="25"/>
       <c r="M52" s="28"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="86"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="85"/>
     </row>
     <row r="53" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="11"/>
       <c r="C53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="93"/>
+        <v>86</v>
+      </c>
+      <c r="D53" s="92"/>
       <c r="E53" s="19"/>
       <c r="F53" s="29"/>
       <c r="G53" s="30"/>
       <c r="H53" s="22"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="24"/>
+      <c r="I53" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="K53" s="101"/>
       <c r="L53" s="25"/>
       <c r="M53" s="28"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="86"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="85"/>
     </row>
     <row r="54" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="11"/>
       <c r="C54" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="93"/>
+      <c r="D54" s="92"/>
       <c r="E54" s="19"/>
       <c r="F54" s="29"/>
       <c r="G54" s="30"/>
       <c r="H54" s="22">
         <v>6</v>
       </c>
-      <c r="I54" s="23">
-        <f>SUM(D54:E54)</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="102"/>
+      <c r="I54" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="101"/>
       <c r="L54" s="25"/>
       <c r="M54" s="28"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="86"/>
+      <c r="N54" s="87"/>
+      <c r="O54" s="85"/>
     </row>
     <row r="55" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="93"/>
+      <c r="D55" s="92"/>
       <c r="E55" s="19"/>
       <c r="F55" s="29"/>
       <c r="G55" s="30"/>
       <c r="H55" s="22"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
+      <c r="I55" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="101"/>
       <c r="L55" s="25"/>
       <c r="M55" s="28"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="86"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="85"/>
     </row>
     <row r="56" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="93"/>
+      <c r="D56" s="92"/>
       <c r="E56" s="19"/>
       <c r="F56" s="29"/>
       <c r="G56" s="30"/>
       <c r="H56" s="22"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
+      <c r="I56" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="101"/>
       <c r="L56" s="25"/>
       <c r="M56" s="28"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="86"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="85"/>
     </row>
     <row r="57" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="93"/>
+      <c r="D57" s="92"/>
       <c r="E57" s="19"/>
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
       <c r="H57" s="22"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
+      <c r="I57" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="101"/>
       <c r="L57" s="25"/>
       <c r="M57" s="28"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="86"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="85"/>
     </row>
     <row r="58" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="11"/>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="93"/>
+      <c r="D58" s="92"/>
       <c r="E58" s="19"/>
       <c r="F58" s="29"/>
       <c r="G58" s="30"/>
       <c r="H58" s="22">
         <v>7</v>
       </c>
-      <c r="I58" s="23">
-        <f>SUM(D58:E58)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="24">
-        <f t="shared" ref="J58:J61" si="7">I58/8</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="100">
-        <f>SUM(J58:J61)</f>
-        <v>0</v>
-      </c>
+      <c r="I58" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="102"/>
       <c r="L58" s="25"/>
       <c r="M58" s="28"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="86"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="85"/>
     </row>
     <row r="59" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="11"/>
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="93"/>
+      <c r="D59" s="92"/>
       <c r="E59" s="19"/>
       <c r="F59" s="29"/>
       <c r="G59" s="30"/>
       <c r="H59" s="22">
         <v>7</v>
       </c>
-      <c r="I59" s="23">
-        <f>SUM(D59:E59)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="101"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="24"/>
       <c r="L59" s="25"/>
       <c r="M59" s="28"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="86"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="85"/>
     </row>
     <row r="60" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="11"/>
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="93"/>
+      <c r="D60" s="92"/>
       <c r="E60" s="19"/>
       <c r="F60" s="29"/>
       <c r="G60" s="30"/>
       <c r="H60" s="22">
         <v>7</v>
       </c>
-      <c r="I60" s="23">
-        <f>SUM(D60:E60)</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="101"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="24"/>
       <c r="L60" s="25"/>
       <c r="M60" s="28"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="86"/>
+      <c r="N60" s="87"/>
+      <c r="O60" s="85"/>
     </row>
     <row r="61" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="11"/>
       <c r="C61" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="93"/>
+      <c r="D61" s="92"/>
       <c r="E61" s="19"/>
       <c r="F61" s="29"/>
       <c r="G61" s="30"/>
       <c r="H61" s="22">
         <v>7</v>
       </c>
-      <c r="I61" s="23">
-        <f>SUM(D61:E61)</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="102"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="24"/>
       <c r="L61" s="25"/>
       <c r="M61" s="28"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="86"/>
+      <c r="N61" s="87"/>
+      <c r="O61" s="85"/>
     </row>
     <row r="62" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="11"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="93"/>
+      <c r="D62" s="92"/>
       <c r="E62" s="19"/>
       <c r="F62" s="29"/>
       <c r="G62" s="30"/>
       <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
+      <c r="I62" s="99">
+        <f t="shared" ref="I62:I65" si="12">(J62*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="23">
+        <f t="shared" ref="J62:J65" si="13">SUM(D62:E62)</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="100">
+        <f>SUM(J62:J65)</f>
+        <v>0</v>
+      </c>
       <c r="L62" s="25"/>
       <c r="M62" s="28"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="86"/>
+      <c r="N62" s="87"/>
+      <c r="O62" s="85"/>
     </row>
     <row r="63" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="11"/>
-      <c r="C63" s="85" t="s">
+      <c r="C63" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="93"/>
+      <c r="D63" s="92"/>
       <c r="E63" s="19"/>
       <c r="F63" s="29"/>
       <c r="G63" s="30"/>
       <c r="H63" s="22"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
+      <c r="I63" s="99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="101"/>
       <c r="L63" s="25"/>
       <c r="M63" s="28"/>
-      <c r="N63" s="88"/>
-      <c r="O63" s="86"/>
+      <c r="N63" s="87"/>
+      <c r="O63" s="85"/>
     </row>
     <row r="64" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
-      <c r="C64" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="93"/>
+      <c r="C64" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="92"/>
       <c r="E64" s="19"/>
       <c r="F64" s="29"/>
       <c r="G64" s="30"/>
       <c r="H64" s="22">
         <v>8</v>
       </c>
-      <c r="I64" s="23">
-        <f>SUM(D64:E64)</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="24">
-        <f t="shared" ref="J64" si="8">I64/8</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="92">
-        <f>J64</f>
-        <v>0</v>
-      </c>
+      <c r="I64" s="99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="101"/>
       <c r="L64" s="25"/>
       <c r="M64" s="28"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="86"/>
+      <c r="N64" s="87"/>
+      <c r="O64" s="85"/>
     </row>
     <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="11"/>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="93"/>
+      <c r="D65" s="92"/>
       <c r="E65" s="19"/>
       <c r="F65" s="29"/>
       <c r="G65" s="30"/>
       <c r="H65" s="22"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
+      <c r="I65" s="99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="102"/>
       <c r="L65" s="25"/>
       <c r="M65" s="28"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="86"/>
+      <c r="N65" s="87"/>
+      <c r="O65" s="85"/>
     </row>
     <row r="66" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" s="11"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="93"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="92"/>
       <c r="E66" s="19"/>
       <c r="F66" s="29"/>
       <c r="G66" s="30"/>
       <c r="H66" s="22"/>
       <c r="I66" s="23"/>
-      <c r="J66" s="24"/>
+      <c r="J66" s="23"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="28"/>
-      <c r="N66" s="88"/>
-      <c r="O66" s="86"/>
+      <c r="N66" s="87"/>
+      <c r="O66" s="85"/>
     </row>
     <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="11"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="93"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="92"/>
       <c r="E67" s="19"/>
       <c r="F67" s="29"/>
       <c r="G67" s="30"/>
       <c r="H67" s="22"/>
       <c r="I67" s="23"/>
-      <c r="J67" s="24"/>
+      <c r="J67" s="23"/>
       <c r="K67" s="24"/>
       <c r="L67" s="25"/>
       <c r="M67" s="28"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="86"/>
+      <c r="N67" s="87"/>
+      <c r="O67" s="85"/>
     </row>
     <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
       <c r="C68" s="18"/>
-      <c r="D68" s="93"/>
+      <c r="D68" s="92"/>
       <c r="E68" s="19"/>
       <c r="F68" s="29"/>
       <c r="G68" s="30"/>
       <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
+      <c r="I68" s="99">
+        <f t="shared" ref="I68" si="14">(J68*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="23">
+        <f t="shared" ref="J68" si="15">SUM(D68:E68)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="91">
+        <f>J68</f>
+        <v>0</v>
+      </c>
       <c r="L68" s="25"/>
       <c r="M68" s="28"/>
-      <c r="N68" s="87"/>
-      <c r="O68" s="86"/>
+      <c r="N68" s="86"/>
+      <c r="O68" s="85"/>
     </row>
     <row r="69" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C69" s="34"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="71"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="70"/>
       <c r="M69" s="28"/>
-      <c r="N69" s="87"/>
-      <c r="O69" s="86"/>
+      <c r="N69" s="86"/>
+      <c r="O69" s="85"/>
     </row>
     <row r="70" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C70" s="35" t="s">
@@ -3914,7 +4017,7 @@
         <f>SUM(D12:D69)</f>
         <v>0</v>
       </c>
-      <c r="E70" s="98">
+      <c r="E70" s="97">
         <f>SUM(E12:E69)</f>
         <v>0</v>
       </c>
@@ -3927,18 +4030,9 @@
         <v>0</v>
       </c>
       <c r="H70" s="36"/>
-      <c r="I70" s="39">
-        <f>SUM(I12:I69)</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="64">
-        <f>SUM(J12:J69)</f>
-        <v>0</v>
-      </c>
-      <c r="K70" s="64">
-        <f>SUM(K12:K69)</f>
-        <v>0</v>
-      </c>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="24"/>
       <c r="L70" s="40">
         <f>SUM(L12:L69)</f>
         <v>0</v>
@@ -3946,44 +4040,67 @@
     </row>
     <row r="71" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C71" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D71" s="4">
         <f>D72 * 8</f>
         <v>0</v>
       </c>
-      <c r="H71" s="80"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="81"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="49"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="48"/>
     </row>
     <row r="72" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C72" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="4">
         <f>SUM(D16:D67)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="24"/>
+    </row>
+    <row r="73" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C73" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E73" s="4">
         <f>E74 * 8</f>
         <v>0</v>
       </c>
+      <c r="I73" s="68"/>
+      <c r="J73" s="68"/>
+      <c r="K73" s="69"/>
     </row>
     <row r="74" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C74" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E74" s="4">
         <f>SUM(E15:E68)</f>
         <v>0</v>
       </c>
+      <c r="I74" s="39">
+        <f>SUM(I12:I73)</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="39">
+        <f>SUM(J12:J73)</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="63">
+        <f>SUM(K12:K73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="I75" s="80"/>
+      <c r="J75" s="80"/>
+      <c r="K75" s="80"/>
     </row>
     <row r="76" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C76" s="41" t="s">
@@ -4010,194 +4127,194 @@
     </row>
     <row r="81" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
-      <c r="B81" s="73" t="s">
+      <c r="B81" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="74" t="s">
+      <c r="C81" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="75" t="s">
+      <c r="D81" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="74" t="s">
+      <c r="E81" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="F81" s="76" t="s">
+      <c r="F81" s="75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B82" s="50">
+      <c r="B82" s="49">
         <v>1</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="C82" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="82" t="e">
+      <c r="D82" s="81" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E82" s="52" t="e">
+      <c r="E82" s="51" t="e">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F82" s="53" t="e">
+      <c r="F82" s="52" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B83" s="54">
+      <c r="B83" s="53">
         <v>2</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="83" t="e">
+      <c r="D83" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E83" s="44" t="e">
+      <c r="E83" s="43" t="e">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F83" s="55" t="e">
+      <c r="F83" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B84" s="54">
+      <c r="B84" s="53">
         <v>3</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D84" s="83" t="e">
+      <c r="D84" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E84" s="44" t="e">
+      <c r="E84" s="43" t="e">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F84" s="55" t="e">
+      <c r="F84" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B85" s="54">
+      <c r="B85" s="53">
         <v>4</v>
       </c>
-      <c r="C85" s="49" t="s">
+      <c r="C85" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="83" t="e">
+      <c r="D85" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E85" s="44" t="e">
+      <c r="E85" s="43" t="e">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F85" s="55" t="e">
+      <c r="F85" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B86" s="54">
+      <c r="B86" s="53">
         <v>5</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D86" s="83" t="e">
+      <c r="D86" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E86" s="44" t="e">
+      <c r="E86" s="43" t="e">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F86" s="55" t="e">
+      <c r="F86" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B87" s="54">
+      <c r="B87" s="53">
         <v>6</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="83" t="e">
+      <c r="D87" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E87" s="44" t="e">
+      <c r="E87" s="43" t="e">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F87" s="55" t="e">
+      <c r="F87" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B88" s="54">
+      <c r="B88" s="53">
         <v>7</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D88" s="83" t="e">
+      <c r="D88" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E88" s="44" t="e">
+      <c r="E88" s="43" t="e">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F88" s="55" t="e">
+      <c r="F88" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B89" s="54">
+      <c r="B89" s="53">
         <v>8</v>
       </c>
-      <c r="C89" s="49"/>
-      <c r="D89" s="83" t="e">
+      <c r="C89" s="48"/>
+      <c r="D89" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E89" s="44" t="e">
+      <c r="E89" s="43" t="e">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F89" s="55" t="e">
+      <c r="F89" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B90" s="54">
+      <c r="B90" s="53">
         <v>9</v>
       </c>
-      <c r="C90" s="49"/>
-      <c r="D90" s="83" t="e">
+      <c r="C90" s="48"/>
+      <c r="D90" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E90" s="44" t="e">
+      <c r="E90" s="43" t="e">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F90" s="55" t="e">
+      <c r="F90" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -4205,68 +4322,68 @@
       <c r="H90" s="42"/>
     </row>
     <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B91" s="54">
+      <c r="B91" s="53">
         <v>10</v>
       </c>
-      <c r="C91" s="49"/>
-      <c r="D91" s="83" t="e">
+      <c r="C91" s="48"/>
+      <c r="D91" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E91" s="44" t="e">
+      <c r="E91" s="43" t="e">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F91" s="55" t="e">
+      <c r="F91" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G91" s="48"/>
-      <c r="H91" s="63"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="62"/>
     </row>
     <row r="92" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="56">
+      <c r="B92" s="55">
         <v>11</v>
       </c>
-      <c r="C92" s="57"/>
-      <c r="D92" s="84" t="e">
+      <c r="C92" s="56"/>
+      <c r="D92" s="83" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E92" s="58" t="e">
+      <c r="E92" s="57" t="e">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F92" s="59" t="e">
+      <c r="F92" s="58" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="60"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61" t="e">
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="60" t="e">
         <f>SUBTOTAL(109,Table22463443234[CXC PM])</f>
         <v>#REF!</v>
       </c>
-      <c r="E93" s="62" t="e">
+      <c r="E93" s="61" t="e">
         <f>SUBTOTAL(109,Table22463443234[T&amp;E])</f>
         <v>#REF!</v>
       </c>
-      <c r="F93" s="78" t="e">
+      <c r="F93" s="77" t="e">
         <f>SUBTOTAL(109,Table22463443234[Total Price])</f>
         <v>#REF!</v>
       </c>
-      <c r="G93" s="79" t="s">
+      <c r="G93" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="H93" s="45"/>
+      <c r="H93" s="44"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D94" s="72" t="s">
+      <c r="D94" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="72" t="s">
+      <c r="E94" s="71" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4274,24 +4391,21 @@
       <c r="C95" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="77" t="e">
+      <c r="D95" s="76" t="e">
         <f>Table22463443234[[#Totals],[CXC PM]]*cxc_rate</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J98" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="K49:K54"/>
-    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="K62:K65"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="K16:K18"/>
     <mergeCell ref="K21:K25"/>
     <mergeCell ref="K28:K31"/>
     <mergeCell ref="K34:K37"/>
     <mergeCell ref="K41:K46"/>
+    <mergeCell ref="K49:K58"/>
   </mergeCells>
   <conditionalFormatting sqref="F93">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -4307,10 +4421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E846BE06-50F3-0A40-BF3B-7CAACDBC3BF2}">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView topLeftCell="A33" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4321,22 +4435,21 @@
     <col min="4" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="4" customWidth="1"/>
-    <col min="8" max="9" width="12.1640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="15" style="4" customWidth="1"/>
     <col min="18" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="49"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="104"/>
-      <c r="L2" s="49"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
@@ -4345,7 +4458,7 @@
       <c r="C3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="49"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -4354,45 +4467,45 @@
       <c r="C4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="49"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="L5" s="49"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="L6" s="49"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="L7" s="49"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="L8" s="87"/>
-      <c r="M8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="85"/>
     </row>
     <row r="9" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="87"/>
-      <c r="M9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="85"/>
     </row>
     <row r="10" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="87"/>
-      <c r="O10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="85"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
@@ -4400,10 +4513,10 @@
       <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="96" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -4416,10 +4529,10 @@
         <v>10</v>
       </c>
       <c r="I11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>24</v>
@@ -4427,78 +4540,78 @@
       <c r="L11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="87"/>
-      <c r="O11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="85"/>
     </row>
     <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="18"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="96"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="22"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="24"/>
       <c r="L12" s="25"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="85"/>
     </row>
     <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="18"/>
-      <c r="D13" s="93"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="19"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27"/>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="24"/>
       <c r="L13" s="25"/>
       <c r="M13" s="28"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="86"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="85"/>
     </row>
     <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="93"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="19"/>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
       <c r="H14" s="22"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="24"/>
       <c r="L14" s="25"/>
       <c r="M14" s="28"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="86"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="85"/>
     </row>
     <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="19"/>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="28"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="86"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="85"/>
     </row>
     <row r="16" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="92">
         <v>0.5</v>
       </c>
       <c r="E16" s="19">
@@ -4513,25 +4626,25 @@
         <f>SUM(D16:E16)</f>
         <v>1</v>
       </c>
-      <c r="J16" s="24">
-        <f>I16/8</f>
-        <v>0.125</v>
+      <c r="J16" s="23">
+        <f>I16 * 8</f>
+        <v>8</v>
       </c>
       <c r="K16" s="105">
-        <f>SUM(J16:J18)</f>
-        <v>0.125</v>
+        <f>SUM(I16:I18)</f>
+        <v>1</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="28"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="86"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="85"/>
     </row>
     <row r="17" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
       <c r="C17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="93"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="19"/>
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
@@ -4542,22 +4655,22 @@
         <f>SUM(D17:E17)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="24">
-        <f t="shared" ref="J17:J18" si="0">I17/8</f>
+      <c r="J17" s="23">
+        <f t="shared" ref="J17:J68" si="0">I17 * 8</f>
         <v>0</v>
       </c>
       <c r="K17" s="106"/>
       <c r="L17" s="25"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="86"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="85"/>
     </row>
     <row r="18" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="93"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="19"/>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
@@ -4568,56 +4681,56 @@
         <f>SUM(D18:E18)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="107"/>
       <c r="L18" s="25"/>
       <c r="M18" s="28"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="86"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="85"/>
     </row>
     <row r="19" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="93"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="19"/>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="24"/>
       <c r="L19" s="25"/>
       <c r="M19" s="28"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="86"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="85"/>
     </row>
     <row r="20" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="93"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="19"/>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="24"/>
       <c r="L20" s="25"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="86"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="85"/>
     </row>
     <row r="21" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="93"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="19"/>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
@@ -4628,25 +4741,25 @@
         <f>SUM(D21:E21)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="24">
-        <f t="shared" ref="J21" si="1">I21/8</f>
+      <c r="J21" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="105">
-        <f>SUM(J21:J25)</f>
-        <v>0.375</v>
+        <f>SUM(I21:I25)</f>
+        <v>3</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="86"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="85"/>
     </row>
     <row r="22" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="93"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="19"/>
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
@@ -4657,22 +4770,22 @@
         <f>SUM(D22:E22)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="24">
-        <f t="shared" ref="J22:J25" si="2">I22/8</f>
+      <c r="J22" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="106"/>
       <c r="L22" s="25"/>
       <c r="M22" s="28"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="86"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="85"/>
     </row>
     <row r="23" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
       <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="93">
+      <c r="D23" s="92">
         <v>1</v>
       </c>
       <c r="E23" s="19">
@@ -4687,22 +4800,22 @@
         <f>SUM(D23:E23)</f>
         <v>2</v>
       </c>
-      <c r="J23" s="24">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+      <c r="J23" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="K23" s="106"/>
       <c r="L23" s="25"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="86"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="85"/>
     </row>
     <row r="24" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="93">
+      <c r="D24" s="92">
         <v>0.5</v>
       </c>
       <c r="E24" s="19">
@@ -4717,20 +4830,20 @@
         <f>SUM(D24:E24)</f>
         <v>1</v>
       </c>
-      <c r="J24" s="24">
-        <f t="shared" si="2"/>
-        <v>0.125</v>
+      <c r="J24" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="K24" s="106"/>
       <c r="L24" s="25"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="86"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="85"/>
     </row>
     <row r="25" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="93"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="19"/>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
@@ -4741,56 +4854,56 @@
         <f>SUM(D25:E25)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="24">
-        <f t="shared" si="2"/>
+      <c r="J25" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="106"/>
       <c r="L25" s="25"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="86"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="85"/>
     </row>
     <row r="26" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="93"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="19"/>
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="47"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="25"/>
       <c r="M26" s="28"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="86"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="85"/>
     </row>
     <row r="27" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="93"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="19"/>
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="86"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="85"/>
     </row>
     <row r="28" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="93"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="19"/>
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
@@ -4801,25 +4914,25 @@
         <f>SUM(D28:E28)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="24">
-        <f t="shared" ref="J28" si="3">I28/8</f>
+      <c r="J28" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="105">
-        <f>SUM(J28:J31)</f>
-        <v>0.375</v>
+        <f>SUM(I28:I31)</f>
+        <v>3</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="28"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="86"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="85"/>
     </row>
     <row r="29" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="93"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="19"/>
       <c r="F29" s="29"/>
       <c r="G29" s="30"/>
@@ -4830,22 +4943,22 @@
         <f>SUM(D29:E29)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="24">
-        <f t="shared" ref="J29:J31" si="4">I29/8</f>
+      <c r="J29" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29" s="106"/>
       <c r="L29" s="25"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="86"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="85"/>
     </row>
     <row r="30" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="93">
+      <c r="D30" s="92">
         <v>1</v>
       </c>
       <c r="E30" s="19">
@@ -4860,22 +4973,22 @@
         <f>SUM(D30:E30)</f>
         <v>2</v>
       </c>
-      <c r="J30" s="24">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
+      <c r="J30" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="K30" s="106"/>
       <c r="L30" s="25"/>
       <c r="M30" s="28"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="86"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="85"/>
     </row>
     <row r="31" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="C31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="93">
+      <c r="D31" s="92">
         <v>0.5</v>
       </c>
       <c r="E31" s="19">
@@ -4890,56 +5003,56 @@
         <f>SUM(D31:E31)</f>
         <v>1</v>
       </c>
-      <c r="J31" s="24">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
+      <c r="J31" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="K31" s="106"/>
       <c r="L31" s="25"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="86"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="85"/>
     </row>
     <row r="32" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="93"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="19"/>
       <c r="F32" s="29"/>
       <c r="G32" s="30"/>
       <c r="H32" s="22"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="24"/>
       <c r="L32" s="25"/>
       <c r="M32" s="28"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="86"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="85"/>
     </row>
     <row r="33" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="93"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="19"/>
       <c r="F33" s="29"/>
       <c r="G33" s="30"/>
       <c r="H33" s="22"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="24"/>
       <c r="L33" s="25"/>
       <c r="M33" s="28"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="86"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="85"/>
     </row>
     <row r="34" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="93"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="19"/>
       <c r="F34" s="29"/>
       <c r="G34" s="30"/>
@@ -4950,25 +5063,25 @@
         <f>SUM(D34:E34)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="24">
-        <f t="shared" ref="J34:J35" si="5">I34/8</f>
+      <c r="J34" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K34" s="105">
-        <f>SUM(J34:J37)</f>
-        <v>0.25</v>
+        <f>SUM(I34:I37)</f>
+        <v>2</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="28"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="86"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="85"/>
     </row>
     <row r="35" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="93"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="19"/>
       <c r="F35" s="29"/>
       <c r="G35" s="30"/>
@@ -4979,22 +5092,22 @@
         <f>SUM(D35:E35)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="24">
-        <f t="shared" si="5"/>
+      <c r="J35" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K35" s="106"/>
       <c r="L35" s="25"/>
       <c r="M35" s="28"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="86"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="85"/>
     </row>
     <row r="36" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="C36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="93">
+      <c r="D36" s="92">
         <v>1</v>
       </c>
       <c r="E36" s="19">
@@ -5009,22 +5122,22 @@
         <f>SUM(D36:E36)</f>
         <v>2</v>
       </c>
-      <c r="J36" s="24">
-        <f t="shared" ref="J36:J37" si="6">I36/8</f>
-        <v>0.25</v>
+      <c r="J36" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="K36" s="106"/>
       <c r="L36" s="25"/>
       <c r="M36" s="28"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="86"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="85"/>
     </row>
     <row r="37" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="C37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="93"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="19"/>
       <c r="F37" s="29"/>
       <c r="G37" s="30"/>
@@ -5035,22 +5148,22 @@
         <f>SUM(D37:E37)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="24">
-        <f t="shared" si="6"/>
+      <c r="J37" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K37" s="107"/>
       <c r="L37" s="25"/>
       <c r="M37" s="28"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="86"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="85"/>
     </row>
     <row r="38" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="93"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="19"/>
       <c r="F38" s="29"/>
       <c r="G38" s="30"/>
@@ -5058,53 +5171,53 @@
         <v>4</v>
       </c>
       <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="24"/>
       <c r="L38" s="25"/>
       <c r="M38" s="28"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="86"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="85"/>
     </row>
     <row r="39" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="11"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="93"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="19"/>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
       <c r="H39" s="22"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="24"/>
       <c r="L39" s="25"/>
       <c r="M39" s="28"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="86"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="85"/>
     </row>
     <row r="40" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="11"/>
       <c r="C40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="93"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="19"/>
       <c r="F40" s="29"/>
       <c r="G40" s="30"/>
       <c r="H40" s="22"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="24"/>
       <c r="L40" s="25"/>
       <c r="M40" s="28"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="86"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="85"/>
     </row>
     <row r="41" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="11"/>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="93"/>
+      <c r="D41" s="92"/>
       <c r="E41" s="19"/>
       <c r="F41" s="29"/>
       <c r="G41" s="30"/>
@@ -5115,25 +5228,25 @@
         <f>SUM(D41:E41)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="24">
-        <f t="shared" ref="J41" si="7">I41/8</f>
+      <c r="J41" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K41" s="105">
-        <f>SUM(J41:J48)</f>
+        <f>SUM(I41:I48)</f>
         <v>0</v>
       </c>
       <c r="L41" s="25"/>
       <c r="M41" s="28"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="86"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="85"/>
     </row>
     <row r="42" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="11"/>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="93"/>
+      <c r="D42" s="92"/>
       <c r="E42" s="19"/>
       <c r="F42" s="29"/>
       <c r="G42" s="30"/>
@@ -5144,22 +5257,22 @@
         <f>SUM(D42:E42)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="24">
-        <f t="shared" ref="J42" si="8">I42/8</f>
+      <c r="J42" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K42" s="106"/>
       <c r="L42" s="25"/>
       <c r="M42" s="28"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="86"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="85"/>
     </row>
     <row r="43" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="11"/>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="93"/>
+      <c r="D43" s="92"/>
       <c r="E43" s="19"/>
       <c r="F43" s="29"/>
       <c r="G43" s="30"/>
@@ -5170,22 +5283,22 @@
         <f>SUM(D43:E43)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="24">
-        <f>I43/8</f>
+      <c r="J43" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K43" s="106"/>
       <c r="L43" s="25"/>
       <c r="M43" s="28"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="86"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="85"/>
     </row>
     <row r="44" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="11"/>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="93"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="19"/>
       <c r="F44" s="29"/>
       <c r="G44" s="30"/>
@@ -5193,19 +5306,19 @@
         <v>5</v>
       </c>
       <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
+      <c r="J44" s="23"/>
       <c r="K44" s="106"/>
       <c r="L44" s="25"/>
       <c r="M44" s="28"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="86"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="85"/>
     </row>
     <row r="45" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="11"/>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="93"/>
+      <c r="D45" s="92"/>
       <c r="E45" s="19"/>
       <c r="F45" s="29"/>
       <c r="G45" s="30"/>
@@ -5213,19 +5326,19 @@
         <v>5</v>
       </c>
       <c r="I45" s="23"/>
-      <c r="J45" s="24"/>
+      <c r="J45" s="23"/>
       <c r="K45" s="106"/>
       <c r="L45" s="25"/>
       <c r="M45" s="28"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="86"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="85"/>
     </row>
     <row r="46" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="11"/>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="93"/>
+      <c r="D46" s="92"/>
       <c r="E46" s="19"/>
       <c r="F46" s="29"/>
       <c r="G46" s="30"/>
@@ -5233,19 +5346,19 @@
         <v>5</v>
       </c>
       <c r="I46" s="23"/>
-      <c r="J46" s="24"/>
+      <c r="J46" s="23"/>
       <c r="K46" s="106"/>
       <c r="L46" s="25"/>
       <c r="M46" s="28"/>
-      <c r="N46" s="90"/>
-      <c r="O46" s="86"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="85"/>
     </row>
     <row r="47" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="11"/>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="93"/>
+      <c r="D47" s="92"/>
       <c r="E47" s="19"/>
       <c r="F47" s="29"/>
       <c r="G47" s="30"/>
@@ -5253,19 +5366,19 @@
         <v>5</v>
       </c>
       <c r="I47" s="23"/>
-      <c r="J47" s="24"/>
+      <c r="J47" s="23"/>
       <c r="K47" s="106"/>
       <c r="L47" s="25"/>
       <c r="M47" s="28"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="86"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="85"/>
     </row>
     <row r="48" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="11"/>
       <c r="C48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="93"/>
+      <c r="D48" s="92"/>
       <c r="E48" s="19"/>
       <c r="F48" s="29"/>
       <c r="G48" s="30"/>
@@ -5276,56 +5389,56 @@
         <f>SUM(D48:E48)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="24">
-        <f t="shared" ref="J48" si="9">I48/8</f>
+      <c r="J48" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K48" s="107"/>
       <c r="L48" s="25"/>
       <c r="M48" s="28"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="86"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="85"/>
     </row>
     <row r="49" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="11"/>
       <c r="C49" s="18"/>
-      <c r="D49" s="93"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="19"/>
       <c r="F49" s="29"/>
       <c r="G49" s="30"/>
       <c r="H49" s="22"/>
       <c r="I49" s="23"/>
-      <c r="J49" s="24"/>
+      <c r="J49" s="23"/>
       <c r="K49" s="24"/>
       <c r="L49" s="25"/>
       <c r="M49" s="28"/>
-      <c r="N49" s="90"/>
-      <c r="O49" s="86"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="85"/>
     </row>
     <row r="50" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
       <c r="C50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="93"/>
+      <c r="D50" s="92"/>
       <c r="E50" s="19"/>
       <c r="F50" s="29"/>
       <c r="G50" s="30"/>
       <c r="H50" s="22"/>
       <c r="I50" s="23"/>
-      <c r="J50" s="24"/>
+      <c r="J50" s="23"/>
       <c r="K50" s="33"/>
       <c r="L50" s="25"/>
       <c r="M50" s="28"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="86"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="85"/>
     </row>
     <row r="51" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="11"/>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="93">
+      <c r="D51" s="92">
         <v>1</v>
       </c>
       <c r="E51" s="19">
@@ -5337,28 +5450,28 @@
         <v>6</v>
       </c>
       <c r="I51" s="23">
-        <f t="shared" ref="I51:I56" si="10">SUM(D51:E51)</f>
+        <f t="shared" ref="I51:I56" si="1">SUM(D51:E51)</f>
         <v>2</v>
       </c>
-      <c r="J51" s="24">
-        <f t="shared" ref="J51:J58" si="11">I51/8</f>
-        <v>0.25</v>
+      <c r="J51" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="K51" s="100">
-        <f>SUM(J51:J58)</f>
-        <v>0.5</v>
+        <f>SUM(I51:I58)</f>
+        <v>4</v>
       </c>
       <c r="L51" s="25"/>
       <c r="M51" s="28"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="86"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="85"/>
     </row>
     <row r="52" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="11"/>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="93"/>
+      <c r="D52" s="92"/>
       <c r="E52" s="19"/>
       <c r="F52" s="29"/>
       <c r="G52" s="30"/>
@@ -5366,25 +5479,25 @@
         <v>6</v>
       </c>
       <c r="I52" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K52" s="101"/>
       <c r="L52" s="25"/>
       <c r="M52" s="28"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="86"/>
+      <c r="N52" s="88"/>
+      <c r="O52" s="85"/>
     </row>
     <row r="53" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="11"/>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="93"/>
+      <c r="D53" s="92"/>
       <c r="E53" s="19"/>
       <c r="F53" s="29"/>
       <c r="G53" s="30"/>
@@ -5392,25 +5505,25 @@
         <v>6</v>
       </c>
       <c r="I53" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K53" s="101"/>
       <c r="L53" s="25"/>
       <c r="M53" s="28"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="86"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="85"/>
     </row>
     <row r="54" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="11"/>
       <c r="C54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="93"/>
+        <v>76</v>
+      </c>
+      <c r="D54" s="92"/>
       <c r="E54" s="19"/>
       <c r="F54" s="29"/>
       <c r="G54" s="30"/>
@@ -5418,25 +5531,25 @@
         <v>6</v>
       </c>
       <c r="I54" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K54" s="101"/>
       <c r="L54" s="25"/>
       <c r="M54" s="28"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="86"/>
+      <c r="N54" s="87"/>
+      <c r="O54" s="85"/>
     </row>
     <row r="55" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
       <c r="C55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="93"/>
+        <v>77</v>
+      </c>
+      <c r="D55" s="92"/>
       <c r="E55" s="19"/>
       <c r="F55" s="29"/>
       <c r="G55" s="30"/>
@@ -5447,22 +5560,22 @@
         <f>SUM(D55:E55)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="24">
-        <f t="shared" si="11"/>
+      <c r="J55" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K55" s="101"/>
       <c r="L55" s="25"/>
       <c r="M55" s="28"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="86"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="85"/>
     </row>
     <row r="56" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
       <c r="C56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="93"/>
+        <v>78</v>
+      </c>
+      <c r="D56" s="92"/>
       <c r="E56" s="19"/>
       <c r="F56" s="29"/>
       <c r="G56" s="30"/>
@@ -5470,25 +5583,25 @@
         <v>6</v>
       </c>
       <c r="I56" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K56" s="101"/>
       <c r="L56" s="25"/>
       <c r="M56" s="28"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="86"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="85"/>
     </row>
     <row r="57" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
       <c r="C57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="93"/>
+        <v>85</v>
+      </c>
+      <c r="D57" s="92"/>
       <c r="E57" s="19"/>
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
@@ -5496,19 +5609,19 @@
         <v>6</v>
       </c>
       <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
+      <c r="J57" s="23"/>
       <c r="K57" s="101"/>
       <c r="L57" s="25"/>
       <c r="M57" s="28"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="86"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="85"/>
     </row>
     <row r="58" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="11"/>
       <c r="C58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="93">
+      <c r="D58" s="92">
         <v>1</v>
       </c>
       <c r="E58" s="19">
@@ -5523,72 +5636,72 @@
         <f>SUM(D58:E58)</f>
         <v>2</v>
       </c>
-      <c r="J58" s="24">
-        <f t="shared" si="11"/>
-        <v>0.25</v>
+      <c r="J58" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="K58" s="102"/>
       <c r="L58" s="25"/>
       <c r="M58" s="28"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="86"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="85"/>
     </row>
     <row r="59" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="11"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="93"/>
+      <c r="D59" s="92"/>
       <c r="E59" s="19"/>
       <c r="F59" s="29"/>
       <c r="G59" s="30"/>
       <c r="H59" s="22"/>
       <c r="I59" s="23"/>
-      <c r="J59" s="24"/>
+      <c r="J59" s="23"/>
       <c r="K59" s="24"/>
       <c r="L59" s="25"/>
       <c r="M59" s="28"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="86"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="85"/>
     </row>
     <row r="60" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="11"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="93"/>
+      <c r="D60" s="92"/>
       <c r="E60" s="19"/>
       <c r="F60" s="29"/>
       <c r="G60" s="30"/>
       <c r="H60" s="22"/>
       <c r="I60" s="23"/>
-      <c r="J60" s="24"/>
+      <c r="J60" s="23"/>
       <c r="K60" s="24"/>
       <c r="L60" s="25"/>
       <c r="M60" s="28"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="86"/>
+      <c r="N60" s="87"/>
+      <c r="O60" s="85"/>
     </row>
     <row r="61" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="11"/>
       <c r="C61" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="93"/>
+      <c r="D61" s="92"/>
       <c r="E61" s="19"/>
       <c r="F61" s="29"/>
       <c r="G61" s="30"/>
       <c r="H61" s="22"/>
       <c r="I61" s="23"/>
-      <c r="J61" s="24"/>
+      <c r="J61" s="23"/>
       <c r="K61" s="24"/>
       <c r="L61" s="25"/>
       <c r="M61" s="28"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="86"/>
+      <c r="N61" s="87"/>
+      <c r="O61" s="85"/>
     </row>
     <row r="62" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="11"/>
-      <c r="C62" s="46" t="s">
+      <c r="C62" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="93"/>
+      <c r="D62" s="92"/>
       <c r="E62" s="19"/>
       <c r="F62" s="29"/>
       <c r="G62" s="30"/>
@@ -5599,25 +5712,25 @@
         <f>SUM(D62:E62)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="24">
-        <f t="shared" ref="J62:J65" si="12">I62/8</f>
+      <c r="J62" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K62" s="100">
-        <f>SUM(J62:J65)</f>
-        <v>0.25</v>
+        <f>SUM(I62:I65)</f>
+        <v>2</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="28"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="86"/>
+      <c r="N62" s="87"/>
+      <c r="O62" s="85"/>
     </row>
     <row r="63" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="11"/>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="93"/>
+      <c r="D63" s="92"/>
       <c r="E63" s="19"/>
       <c r="F63" s="29"/>
       <c r="G63" s="30"/>
@@ -5628,22 +5741,22 @@
         <f>SUM(D63:E63)</f>
         <v>0</v>
       </c>
-      <c r="J63" s="24">
-        <f t="shared" si="12"/>
+      <c r="J63" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K63" s="101"/>
       <c r="L63" s="25"/>
       <c r="M63" s="28"/>
-      <c r="N63" s="88"/>
-      <c r="O63" s="86"/>
+      <c r="N63" s="87"/>
+      <c r="O63" s="85"/>
     </row>
     <row r="64" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="93">
+      <c r="D64" s="92">
         <v>1</v>
       </c>
       <c r="E64" s="19">
@@ -5658,22 +5771,22 @@
         <f>SUM(D64:E64)</f>
         <v>2</v>
       </c>
-      <c r="J64" s="24">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
+      <c r="J64" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="K64" s="101"/>
       <c r="L64" s="25"/>
       <c r="M64" s="28"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="86"/>
+      <c r="N64" s="87"/>
+      <c r="O64" s="85"/>
     </row>
     <row r="65" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="11"/>
       <c r="C65" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="93"/>
+      <c r="D65" s="92"/>
       <c r="E65" s="19"/>
       <c r="F65" s="29"/>
       <c r="G65" s="30"/>
@@ -5684,56 +5797,56 @@
         <f>SUM(D65:E65)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="24">
-        <f t="shared" si="12"/>
+      <c r="J65" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K65" s="102"/>
       <c r="L65" s="25"/>
       <c r="M65" s="28"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="86"/>
+      <c r="N65" s="87"/>
+      <c r="O65" s="85"/>
     </row>
     <row r="66" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" s="11"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="93"/>
+      <c r="D66" s="92"/>
       <c r="E66" s="19"/>
       <c r="F66" s="29"/>
       <c r="G66" s="30"/>
       <c r="H66" s="22"/>
       <c r="I66" s="23"/>
-      <c r="J66" s="24"/>
+      <c r="J66" s="23"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="28"/>
-      <c r="N66" s="88"/>
-      <c r="O66" s="86"/>
+      <c r="N66" s="87"/>
+      <c r="O66" s="85"/>
     </row>
     <row r="67" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="11"/>
-      <c r="C67" s="85" t="s">
+      <c r="C67" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="93"/>
+      <c r="D67" s="92"/>
       <c r="E67" s="19"/>
       <c r="F67" s="29"/>
       <c r="G67" s="30"/>
       <c r="H67" s="22"/>
       <c r="I67" s="23"/>
-      <c r="J67" s="24"/>
+      <c r="J67" s="23"/>
       <c r="K67" s="24"/>
       <c r="L67" s="25"/>
       <c r="M67" s="28"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="86"/>
+      <c r="N67" s="87"/>
+      <c r="O67" s="85"/>
     </row>
     <row r="68" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D68" s="93"/>
+      <c r="D68" s="92"/>
       <c r="E68" s="19"/>
       <c r="F68" s="29"/>
       <c r="G68" s="30"/>
@@ -5744,97 +5857,97 @@
         <f>SUM(D68:E68)</f>
         <v>0</v>
       </c>
-      <c r="J68" s="24">
-        <f t="shared" ref="J68" si="13">I68/8</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="92">
-        <f>J68</f>
+      <c r="J68" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="91">
+        <f>SUM(I68)</f>
         <v>0</v>
       </c>
       <c r="L68" s="25"/>
       <c r="M68" s="28"/>
-      <c r="N68" s="88"/>
-      <c r="O68" s="86"/>
+      <c r="N68" s="87"/>
+      <c r="O68" s="85"/>
     </row>
     <row r="69" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" s="11"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="93"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="92"/>
       <c r="E69" s="19"/>
       <c r="F69" s="29"/>
       <c r="G69" s="30"/>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
-      <c r="J69" s="24"/>
+      <c r="J69" s="23"/>
       <c r="K69" s="24"/>
       <c r="L69" s="25"/>
       <c r="M69" s="28"/>
-      <c r="N69" s="88"/>
-      <c r="O69" s="86"/>
+      <c r="N69" s="87"/>
+      <c r="O69" s="85"/>
     </row>
     <row r="70" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="11"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="93"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="92"/>
       <c r="E70" s="19"/>
       <c r="F70" s="29"/>
       <c r="G70" s="30"/>
       <c r="H70" s="22"/>
       <c r="I70" s="23"/>
-      <c r="J70" s="24"/>
+      <c r="J70" s="23"/>
       <c r="K70" s="24"/>
       <c r="L70" s="25"/>
       <c r="M70" s="28"/>
-      <c r="N70" s="88"/>
-      <c r="O70" s="86"/>
+      <c r="N70" s="87"/>
+      <c r="O70" s="85"/>
     </row>
     <row r="71" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="93"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="92"/>
       <c r="E71" s="19"/>
       <c r="F71" s="29"/>
       <c r="G71" s="30"/>
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
-      <c r="J71" s="24"/>
+      <c r="J71" s="23"/>
       <c r="K71" s="24"/>
       <c r="L71" s="25"/>
       <c r="M71" s="28"/>
-      <c r="N71" s="88"/>
-      <c r="O71" s="86"/>
+      <c r="N71" s="87"/>
+      <c r="O71" s="85"/>
     </row>
     <row r="72" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" s="11"/>
       <c r="C72" s="18"/>
-      <c r="D72" s="93"/>
+      <c r="D72" s="92"/>
       <c r="E72" s="19"/>
       <c r="F72" s="29"/>
       <c r="G72" s="30"/>
       <c r="H72" s="22"/>
       <c r="I72" s="23"/>
-      <c r="J72" s="24"/>
+      <c r="J72" s="23"/>
       <c r="K72" s="24"/>
       <c r="L72" s="25"/>
       <c r="M72" s="28"/>
-      <c r="N72" s="87"/>
-      <c r="O72" s="86"/>
+      <c r="N72" s="86"/>
+      <c r="O72" s="85"/>
     </row>
     <row r="73" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C73" s="34"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="71"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="68"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="70"/>
       <c r="M73" s="28"/>
-      <c r="N73" s="87"/>
-      <c r="O73" s="86"/>
+      <c r="N73" s="86"/>
+      <c r="O73" s="85"/>
     </row>
     <row r="74" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C74" s="35" t="s">
@@ -5844,7 +5957,7 @@
         <f>SUM(D12:D73)</f>
         <v>7.5</v>
       </c>
-      <c r="E74" s="99">
+      <c r="E74" s="98">
         <f>SUM(E12:E73)</f>
         <v>7.5</v>
       </c>
@@ -5861,13 +5974,13 @@
         <f>SUM(I12:I73)</f>
         <v>15</v>
       </c>
-      <c r="J74" s="64">
+      <c r="J74" s="39">
         <f>SUM(J12:J73)</f>
-        <v>1.875</v>
-      </c>
-      <c r="K74" s="64">
+        <v>120</v>
+      </c>
+      <c r="K74" s="63">
         <f>SUM(K12:K73)</f>
-        <v>1.875</v>
+        <v>15</v>
       </c>
       <c r="L74" s="40">
         <f>SUM(L12:L73)</f>
@@ -5876,21 +5989,21 @@
     </row>
     <row r="75" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C75" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="4">
         <f>D76 * 8</f>
         <v>60</v>
       </c>
-      <c r="H75" s="80"/>
-      <c r="I75" s="81"/>
-      <c r="J75" s="81"/>
-      <c r="K75" s="81"/>
-      <c r="L75" s="49"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="80"/>
+      <c r="J75" s="80"/>
+      <c r="K75" s="80"/>
+      <c r="L75" s="48"/>
     </row>
     <row r="76" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C76" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="4">
         <f>SUM(D16:D71)</f>
@@ -5899,7 +6012,7 @@
     </row>
     <row r="77" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C77" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E77" s="4">
         <f>E78 * 8</f>
@@ -5908,7 +6021,7 @@
     </row>
     <row r="78" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C78" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E78" s="4">
         <f>SUM(E15:E72)</f>
@@ -5940,194 +6053,194 @@
     </row>
     <row r="85" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9"/>
-      <c r="B85" s="73" t="s">
+      <c r="B85" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="75" t="s">
+      <c r="D85" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E85" s="74" t="s">
+      <c r="E85" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="F85" s="76" t="s">
+      <c r="F85" s="75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B86" s="50">
+      <c r="B86" s="49">
         <v>1</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D86" s="82" t="e">
+      <c r="D86" s="81" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E86" s="52" t="e">
+      <c r="E86" s="51" t="e">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F86" s="53" t="e">
+      <c r="F86" s="52" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B87" s="54">
+      <c r="B87" s="53">
         <v>2</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="83" t="e">
+      <c r="D87" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E87" s="44" t="e">
+      <c r="E87" s="43" t="e">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F87" s="55" t="e">
+      <c r="F87" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B88" s="54">
+      <c r="B88" s="53">
         <v>3</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D88" s="83" t="e">
+      <c r="D88" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E88" s="44" t="e">
+      <c r="E88" s="43" t="e">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F88" s="55" t="e">
+      <c r="F88" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B89" s="54">
+      <c r="B89" s="53">
         <v>4</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D89" s="83" t="e">
+      <c r="D89" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E89" s="44" t="e">
+      <c r="E89" s="43" t="e">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F89" s="55" t="e">
+      <c r="F89" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B90" s="54">
+      <c r="B90" s="53">
         <v>5</v>
       </c>
-      <c r="C90" s="49" t="s">
+      <c r="C90" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D90" s="83" t="e">
+      <c r="D90" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E90" s="44" t="e">
+      <c r="E90" s="43" t="e">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F90" s="55" t="e">
+      <c r="F90" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B91" s="54">
+      <c r="B91" s="53">
         <v>6</v>
       </c>
-      <c r="C91" s="49" t="s">
+      <c r="C91" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="83" t="e">
+      <c r="D91" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E91" s="44" t="e">
+      <c r="E91" s="43" t="e">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F91" s="55" t="e">
+      <c r="F91" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B92" s="54">
+      <c r="B92" s="53">
         <v>7</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D92" s="83" t="e">
+      <c r="D92" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E92" s="44" t="e">
+      <c r="E92" s="43" t="e">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F92" s="55" t="e">
+      <c r="F92" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B93" s="54">
+      <c r="B93" s="53">
         <v>8</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="83" t="e">
+      <c r="C93" s="48"/>
+      <c r="D93" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E93" s="44" t="e">
+      <c r="E93" s="43" t="e">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F93" s="55" t="e">
+      <c r="F93" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B94" s="54">
+      <c r="B94" s="53">
         <v>9</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="83" t="e">
+      <c r="C94" s="48"/>
+      <c r="D94" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E94" s="44" t="e">
+      <c r="E94" s="43" t="e">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F94" s="55" t="e">
+      <c r="F94" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -6135,82 +6248,79 @@
       <c r="H94" s="42"/>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B95" s="54">
+      <c r="B95" s="53">
         <v>10</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="83" t="e">
+      <c r="C95" s="48"/>
+      <c r="D95" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E95" s="44" t="e">
+      <c r="E95" s="43" t="e">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F95" s="55" t="e">
+      <c r="F95" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G95" s="48"/>
-      <c r="H95" s="63"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="62"/>
     </row>
     <row r="96" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="56">
+      <c r="B96" s="55">
         <v>11</v>
       </c>
-      <c r="C96" s="57"/>
-      <c r="D96" s="84" t="e">
+      <c r="C96" s="56"/>
+      <c r="D96" s="83" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E96" s="58" t="e">
+      <c r="E96" s="57" t="e">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v>#REF!</v>
       </c>
-      <c r="F96" s="59" t="e">
+      <c r="F96" s="58" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="97" spans="2:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="60"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="61" t="e">
+    <row r="97" spans="2:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="60" t="e">
         <f>SUBTOTAL(109,Table224634432[CXC PM])</f>
         <v>#REF!</v>
       </c>
-      <c r="E97" s="62" t="e">
+      <c r="E97" s="61" t="e">
         <f>SUBTOTAL(109,Table224634432[T&amp;E])</f>
         <v>#REF!</v>
       </c>
-      <c r="F97" s="78" t="e">
+      <c r="F97" s="77" t="e">
         <f>SUBTOTAL(109,Table224634432[Total Price])</f>
         <v>#REF!</v>
       </c>
-      <c r="G97" s="79" t="s">
+      <c r="G97" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="H97" s="45"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D98" s="72" t="s">
+      <c r="H97" s="44"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D98" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="72" t="s">
+      <c r="E98" s="71" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C99" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="77" t="e">
+      <c r="D99" s="76" t="e">
         <f>Table224634432[[#Totals],[CXC PM]]*cxc_rate</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J102" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6237,10 +6347,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB391CD-69E0-6A4F-9E05-C5757E2CD4A6}">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="131" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="131" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6251,22 +6361,21 @@
     <col min="4" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="4" customWidth="1"/>
-    <col min="8" max="9" width="12.1640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="15" style="4" customWidth="1"/>
     <col min="18" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="49"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="104"/>
-      <c r="L2" s="49"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
@@ -6275,54 +6384,54 @@
       <c r="C3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="49"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="49"/>
+        <v>79</v>
+      </c>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="L5" s="49"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="L6" s="49"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="L7" s="49"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="L8" s="87"/>
-      <c r="M8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="85"/>
     </row>
     <row r="9" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="87"/>
-      <c r="M9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="85"/>
     </row>
     <row r="10" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="87"/>
-      <c r="O10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="85"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
     </row>
@@ -6330,10 +6439,10 @@
       <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="96" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -6357,78 +6466,78 @@
       <c r="L11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="87"/>
-      <c r="O11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="85"/>
     </row>
     <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="18"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="96"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="22"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="24"/>
       <c r="L12" s="25"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="85"/>
     </row>
     <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="18"/>
-      <c r="D13" s="93"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="19"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27"/>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="24"/>
       <c r="L13" s="25"/>
       <c r="M13" s="28"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="86"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="85"/>
     </row>
     <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="93"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="19"/>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
       <c r="H14" s="22"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="24"/>
       <c r="L14" s="25"/>
       <c r="M14" s="28"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="86"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="85"/>
     </row>
     <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="19"/>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="28"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="86"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="85"/>
     </row>
     <row r="16" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="92">
         <v>0.5</v>
       </c>
       <c r="E16" s="19">
@@ -6439,592 +6548,612 @@
       <c r="H16" s="22">
         <v>1</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="99">
+        <f>(J16*8)</f>
+        <v>8</v>
+      </c>
+      <c r="J16" s="23">
         <f>SUM(D16:E16)</f>
         <v>1</v>
       </c>
-      <c r="J16" s="24">
-        <f>I16/8</f>
-        <v>0.125</v>
-      </c>
       <c r="K16" s="105">
         <f>SUM(J16:J18)</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="28"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="86"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="85"/>
     </row>
     <row r="17" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
       <c r="C17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="93"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="19"/>
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
       <c r="H17" s="22">
         <v>1</v>
       </c>
-      <c r="I17" s="23">
-        <f>SUM(D17:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="24">
-        <f t="shared" ref="J17:J18" si="0">I17/8</f>
+      <c r="I17" s="99">
+        <f t="shared" ref="I17:I18" si="0">(J17*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="23">
+        <f t="shared" ref="J17:J18" si="1">SUM(D17:E17)</f>
         <v>0</v>
       </c>
       <c r="K17" s="106"/>
       <c r="L17" s="25"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="86"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="85"/>
     </row>
     <row r="18" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="93"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="19"/>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
       <c r="H18" s="22">
         <v>1</v>
       </c>
-      <c r="I18" s="23">
-        <f>SUM(D18:E18)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="24">
+      <c r="I18" s="99">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="107"/>
       <c r="L18" s="25"/>
       <c r="M18" s="28"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="86"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="85"/>
     </row>
     <row r="19" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="93"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="19"/>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="24"/>
       <c r="L19" s="25"/>
       <c r="M19" s="28"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="86"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="85"/>
     </row>
     <row r="20" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="93"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="19"/>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="24"/>
       <c r="L20" s="25"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="86"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="85"/>
     </row>
     <row r="21" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="93"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="19"/>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
       <c r="H21" s="22">
         <v>2</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="99">
+        <f t="shared" ref="I21:I25" si="2">(J21*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="23">
         <f>SUM(D21:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="24">
-        <f t="shared" ref="J21:J25" si="1">I21/8</f>
         <v>0</v>
       </c>
       <c r="K21" s="105">
         <f>SUM(J21:J25)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="86"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="85"/>
     </row>
     <row r="22" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="93"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="19"/>
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
       <c r="H22" s="22">
         <v>2</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="23">
         <f>SUM(D22:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="106"/>
       <c r="L22" s="25"/>
       <c r="M22" s="28"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="86"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="85"/>
     </row>
     <row r="23" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
       <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="19"/>
+      <c r="D23" s="108">
+        <v>1</v>
+      </c>
+      <c r="E23" s="109">
+        <v>1</v>
+      </c>
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
       <c r="H23" s="22">
         <v>2</v>
       </c>
-      <c r="I23" s="23">
-        <f>SUM(D23:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="I23" s="99">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="J23" s="23">
+        <f t="shared" ref="J23:J25" si="3">SUM(D23:E23)</f>
+        <v>2</v>
       </c>
       <c r="K23" s="106"/>
       <c r="L23" s="25"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="86"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="85"/>
     </row>
     <row r="24" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="19"/>
+      <c r="D24" s="108">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="110">
+        <v>0.5</v>
+      </c>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
       <c r="H24" s="22">
         <v>2</v>
       </c>
-      <c r="I24" s="23">
-        <f>SUM(D24:E24)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="I24" s="99">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J24" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K24" s="106"/>
       <c r="L24" s="25"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="86"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="85"/>
     </row>
     <row r="25" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="93"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="19"/>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
       <c r="H25" s="22">
         <v>0</v>
       </c>
-      <c r="I25" s="23">
-        <f>SUM(D25:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="24">
-        <f t="shared" si="1"/>
+      <c r="I25" s="99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="23">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K25" s="106"/>
       <c r="L25" s="25"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="86"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="85"/>
     </row>
     <row r="26" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="93"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="19"/>
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="47"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="25"/>
       <c r="M26" s="28"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="86"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="85"/>
     </row>
     <row r="27" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
       <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="93"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="19"/>
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="86"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="85"/>
     </row>
     <row r="28" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="93"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="19"/>
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
       <c r="H28" s="22">
         <v>3</v>
       </c>
-      <c r="I28" s="23">
-        <f>SUM(D28:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="24">
-        <f t="shared" ref="J28:J31" si="2">I28/8</f>
+      <c r="I28" s="99">
+        <f t="shared" ref="I28:I31" si="4">(J28*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="23">
+        <f t="shared" ref="J28:J31" si="5">SUM(D28:E28)</f>
         <v>0</v>
       </c>
       <c r="K28" s="105">
         <f>SUM(J28:J31)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="28"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="86"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="85"/>
     </row>
     <row r="29" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
       <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="93"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="19"/>
       <c r="F29" s="29"/>
       <c r="G29" s="30"/>
       <c r="H29" s="22">
         <v>3</v>
       </c>
-      <c r="I29" s="23">
-        <f>SUM(D29:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="24">
-        <f t="shared" si="2"/>
+      <c r="I29" s="99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="23">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K29" s="106"/>
       <c r="L29" s="25"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="86"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="85"/>
     </row>
     <row r="30" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="19"/>
+      <c r="D30" s="92">
+        <v>1</v>
+      </c>
+      <c r="E30" s="19">
+        <v>1</v>
+      </c>
       <c r="F30" s="29"/>
       <c r="G30" s="30"/>
       <c r="H30" s="22">
         <v>3</v>
       </c>
-      <c r="I30" s="23">
-        <f>SUM(D30:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="I30" s="99">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="J30" s="23">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="K30" s="106"/>
       <c r="L30" s="25"/>
       <c r="M30" s="28"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="86"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="85"/>
     </row>
     <row r="31" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
       <c r="C31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="93"/>
-      <c r="E31" s="19"/>
+      <c r="D31" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.5</v>
+      </c>
       <c r="F31" s="29"/>
       <c r="G31" s="30"/>
       <c r="H31" s="22">
         <v>3</v>
       </c>
-      <c r="I31" s="23">
-        <f>SUM(D31:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="I31" s="99">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J31" s="23">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="K31" s="106"/>
       <c r="L31" s="25"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="86"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="85"/>
     </row>
     <row r="32" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="93"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="19"/>
       <c r="F32" s="29"/>
       <c r="G32" s="30"/>
       <c r="H32" s="22"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="24"/>
       <c r="L32" s="25"/>
       <c r="M32" s="28"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="86"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="85"/>
     </row>
     <row r="33" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="93"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="19"/>
       <c r="F33" s="29"/>
       <c r="G33" s="30"/>
       <c r="H33" s="22"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="24"/>
       <c r="L33" s="25"/>
       <c r="M33" s="28"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="86"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="85"/>
     </row>
     <row r="34" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="93"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="19"/>
       <c r="F34" s="29"/>
       <c r="G34" s="30"/>
       <c r="H34" s="22">
         <v>4</v>
       </c>
-      <c r="I34" s="23">
-        <f>SUM(D34:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="24">
-        <f t="shared" ref="J34:J37" si="3">I34/8</f>
+      <c r="I34" s="99">
+        <f t="shared" ref="I34:I37" si="6">(J34*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="23">
+        <f t="shared" ref="J34:J37" si="7">SUM(D34:E34)</f>
         <v>0</v>
       </c>
       <c r="K34" s="105">
         <f>SUM(J34:J37)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="28"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="86"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="85"/>
     </row>
     <row r="35" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="93"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="19"/>
       <c r="F35" s="29"/>
       <c r="G35" s="30"/>
       <c r="H35" s="22">
         <v>4</v>
       </c>
-      <c r="I35" s="23">
-        <f>SUM(D35:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="24">
-        <f t="shared" si="3"/>
+      <c r="I35" s="99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K35" s="106"/>
       <c r="L35" s="25"/>
       <c r="M35" s="28"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="86"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="85"/>
     </row>
     <row r="36" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
       <c r="C36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="19"/>
+      <c r="D36" s="92">
+        <v>1</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1</v>
+      </c>
       <c r="F36" s="29"/>
       <c r="G36" s="30"/>
       <c r="H36" s="22">
         <v>4</v>
       </c>
-      <c r="I36" s="23">
-        <f>SUM(D36:E36)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I36" s="99">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="J36" s="23">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="K36" s="106"/>
       <c r="L36" s="25"/>
       <c r="M36" s="28"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="86"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="85"/>
     </row>
     <row r="37" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="C37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="93"/>
+      <c r="D37" s="92"/>
       <c r="E37" s="19"/>
       <c r="F37" s="29"/>
       <c r="G37" s="30"/>
       <c r="H37" s="22">
         <v>4</v>
       </c>
-      <c r="I37" s="23">
-        <f>SUM(D37:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="24">
-        <f t="shared" si="3"/>
+      <c r="I37" s="99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="23">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K37" s="107"/>
       <c r="L37" s="25"/>
       <c r="M37" s="28"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="86"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="85"/>
     </row>
     <row r="38" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="93"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="19"/>
       <c r="F38" s="29"/>
       <c r="G38" s="30"/>
       <c r="H38" s="22"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="24"/>
       <c r="L38" s="25"/>
       <c r="M38" s="28"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="86"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="85"/>
     </row>
     <row r="39" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="11"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="93"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="19"/>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
       <c r="H39" s="22"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="23"/>
       <c r="K39" s="24"/>
       <c r="L39" s="25"/>
       <c r="M39" s="28"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="86"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="85"/>
     </row>
     <row r="40" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="11"/>
       <c r="C40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="93"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="19"/>
       <c r="F40" s="29"/>
       <c r="G40" s="30"/>
       <c r="H40" s="22"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="24"/>
       <c r="L40" s="25"/>
       <c r="M40" s="28"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="86"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="85"/>
     </row>
     <row r="41" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="11"/>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="93"/>
+      <c r="D41" s="92"/>
       <c r="E41" s="19"/>
       <c r="F41" s="29"/>
       <c r="G41" s="30"/>
       <c r="H41" s="22">
         <v>5</v>
       </c>
-      <c r="I41" s="23">
-        <f>SUM(D41:E41)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="24">
-        <f t="shared" ref="J41:J42" si="4">I41/8</f>
+      <c r="I41" s="99">
+        <f t="shared" ref="I41:I46" si="8">(J41*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="23">
+        <f t="shared" ref="J41:J45" si="9">SUM(D41:E41)</f>
         <v>0</v>
       </c>
       <c r="K41" s="105">
@@ -7033,1085 +7162,1180 @@
       </c>
       <c r="L41" s="25"/>
       <c r="M41" s="28"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="86"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="85"/>
     </row>
     <row r="42" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="11"/>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="93"/>
+      <c r="D42" s="92"/>
       <c r="E42" s="19"/>
       <c r="F42" s="29"/>
       <c r="G42" s="30"/>
       <c r="H42" s="22">
         <v>5</v>
       </c>
-      <c r="I42" s="23">
-        <f>SUM(D42:E42)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="24">
-        <f t="shared" si="4"/>
+      <c r="I42" s="99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K42" s="106"/>
       <c r="L42" s="25"/>
       <c r="M42" s="28"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="86"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="85"/>
     </row>
     <row r="43" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="11"/>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="93"/>
+      <c r="D43" s="92"/>
       <c r="E43" s="19"/>
       <c r="F43" s="29"/>
       <c r="G43" s="30"/>
       <c r="H43" s="22">
         <v>5</v>
       </c>
-      <c r="I43" s="23">
-        <f>SUM(D43:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="24">
-        <f>I43/8</f>
+      <c r="I43" s="99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="23">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K43" s="106"/>
       <c r="L43" s="25"/>
       <c r="M43" s="28"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="86"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="85"/>
     </row>
     <row r="44" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="11"/>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="93"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="19"/>
       <c r="F44" s="29"/>
       <c r="G44" s="30"/>
       <c r="H44" s="22">
         <v>5</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
+      <c r="I44" s="99">
+        <f>(J44*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K44" s="106"/>
       <c r="L44" s="25"/>
       <c r="M44" s="28"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="86"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="85"/>
     </row>
     <row r="45" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="11"/>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="93"/>
+      <c r="D45" s="92"/>
       <c r="E45" s="19"/>
       <c r="F45" s="29"/>
       <c r="G45" s="30"/>
       <c r="H45" s="22">
         <v>5</v>
       </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="24"/>
+      <c r="I45" s="99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K45" s="106"/>
       <c r="L45" s="25"/>
       <c r="M45" s="28"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="86"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="85"/>
     </row>
     <row r="46" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="11"/>
       <c r="C46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="93"/>
+      <c r="D46" s="92"/>
       <c r="E46" s="19"/>
       <c r="F46" s="29"/>
       <c r="G46" s="30"/>
       <c r="H46" s="22">
         <v>5</v>
       </c>
-      <c r="I46" s="23">
-        <f>SUM(D46:E46)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="24">
-        <f t="shared" ref="J46" si="5">I46/8</f>
+      <c r="I46" s="99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="23">
+        <f t="shared" ref="J46" si="10">SUM(D46:E46)</f>
         <v>0</v>
       </c>
       <c r="K46" s="107"/>
       <c r="L46" s="25"/>
       <c r="M46" s="28"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="86"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="85"/>
     </row>
     <row r="47" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="11"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="93"/>
+      <c r="D47" s="92"/>
       <c r="E47" s="19"/>
       <c r="F47" s="29"/>
       <c r="G47" s="30"/>
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="24"/>
+      <c r="J47" s="23"/>
       <c r="K47" s="24"/>
       <c r="L47" s="25"/>
       <c r="M47" s="28"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="86"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="85"/>
     </row>
     <row r="48" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="11"/>
       <c r="C48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="93"/>
+      <c r="D48" s="92"/>
       <c r="E48" s="19"/>
       <c r="F48" s="29"/>
       <c r="G48" s="30"/>
       <c r="H48" s="22"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="24"/>
+      <c r="J48" s="23"/>
       <c r="K48" s="33"/>
       <c r="L48" s="25"/>
       <c r="M48" s="28"/>
-      <c r="N48" s="90"/>
-      <c r="O48" s="86"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="85"/>
     </row>
     <row r="49" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="11"/>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="93"/>
-      <c r="E49" s="19"/>
+      <c r="D49" s="92">
+        <v>1</v>
+      </c>
+      <c r="E49" s="19">
+        <v>1</v>
+      </c>
       <c r="F49" s="29"/>
       <c r="G49" s="30"/>
       <c r="H49" s="22">
         <v>6</v>
       </c>
-      <c r="I49" s="23">
-        <f>SUM(D49:E49)</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="24">
-        <f t="shared" ref="J49:J58" si="6">I49/8</f>
-        <v>0</v>
+      <c r="I49" s="99">
+        <f t="shared" ref="I49:I60" si="11">(J49*8)</f>
+        <v>16</v>
+      </c>
+      <c r="J49" s="23">
+        <f t="shared" ref="J49:J59" si="12">SUM(D49:E49)</f>
+        <v>2</v>
       </c>
       <c r="K49" s="100">
-        <f>SUM(J49:J58)</f>
-        <v>0</v>
+        <f>SUM(J49:J60)</f>
+        <v>8</v>
       </c>
       <c r="L49" s="25"/>
       <c r="M49" s="28"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="86"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="85"/>
     </row>
     <row r="50" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="93"/>
-      <c r="E50" s="19"/>
+      <c r="D50" s="92">
+        <v>2</v>
+      </c>
+      <c r="E50" s="19">
+        <v>2</v>
+      </c>
       <c r="F50" s="29"/>
       <c r="G50" s="30"/>
       <c r="H50" s="22">
         <v>6</v>
       </c>
-      <c r="I50" s="23">
-        <f>SUM(D50:E50)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="I50" s="99">
+        <f t="shared" ref="I50" si="13">(J50*8)</f>
+        <v>32</v>
+      </c>
+      <c r="J50" s="23">
+        <f t="shared" ref="J50" si="14">SUM(D50:E50)</f>
+        <v>4</v>
       </c>
       <c r="K50" s="101"/>
       <c r="L50" s="25"/>
       <c r="M50" s="28"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="86"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="85"/>
     </row>
     <row r="51" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="11"/>
-      <c r="C51" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="93"/>
+      <c r="C51" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="92"/>
       <c r="E51" s="19"/>
       <c r="F51" s="29"/>
       <c r="G51" s="30"/>
       <c r="H51" s="22">
         <v>6</v>
       </c>
-      <c r="I51" s="23">
-        <f>SUM(D51:E51)</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="24">
-        <f t="shared" si="6"/>
+      <c r="I51" s="99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="23">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K51" s="101"/>
       <c r="L51" s="25"/>
       <c r="M51" s="28"/>
       <c r="N51" s="88"/>
-      <c r="O51" s="86"/>
+      <c r="O51" s="85"/>
     </row>
     <row r="52" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="11"/>
-      <c r="C52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="93"/>
+      <c r="C52" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="92"/>
       <c r="E52" s="19"/>
       <c r="F52" s="29"/>
       <c r="G52" s="30"/>
       <c r="H52" s="22">
         <v>6</v>
       </c>
-      <c r="I52" s="23">
-        <f>SUM(D52:E52)</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="24">
-        <f t="shared" si="6"/>
+      <c r="I52" s="99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="23">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K52" s="101"/>
       <c r="L52" s="25"/>
       <c r="M52" s="28"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="86"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="85"/>
     </row>
     <row r="53" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="11"/>
-      <c r="C53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="93"/>
+      <c r="C53" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="92"/>
       <c r="E53" s="19"/>
       <c r="F53" s="29"/>
       <c r="G53" s="30"/>
       <c r="H53" s="22">
         <v>6</v>
       </c>
-      <c r="I53" s="23">
-        <f>SUM(D53:E53)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="24">
-        <f t="shared" si="6"/>
+      <c r="I53" s="99">
+        <f t="shared" ref="I53" si="15">(J53*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="23">
+        <f t="shared" ref="J53" si="16">SUM(D53:E53)</f>
         <v>0</v>
       </c>
       <c r="K53" s="101"/>
       <c r="L53" s="25"/>
       <c r="M53" s="28"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="86"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="85"/>
     </row>
     <row r="54" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="11"/>
-      <c r="C54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="93"/>
+      <c r="C54" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="92"/>
       <c r="E54" s="19"/>
       <c r="F54" s="29"/>
       <c r="G54" s="30"/>
       <c r="H54" s="22">
         <v>6</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="24"/>
+      <c r="I54" s="99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K54" s="101"/>
       <c r="L54" s="25"/>
       <c r="M54" s="28"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="86"/>
+      <c r="N54" s="87"/>
+      <c r="O54" s="85"/>
     </row>
     <row r="55" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
       <c r="C55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="93"/>
+        <v>96</v>
+      </c>
+      <c r="D55" s="92"/>
       <c r="E55" s="19"/>
       <c r="F55" s="29"/>
       <c r="G55" s="30"/>
       <c r="H55" s="22">
         <v>6</v>
       </c>
-      <c r="I55" s="23">
-        <f>SUM(D55:E55)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="24">
-        <f t="shared" si="6"/>
+      <c r="I55" s="99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="23">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K55" s="101"/>
       <c r="L55" s="25"/>
       <c r="M55" s="28"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="86"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="85"/>
     </row>
     <row r="56" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
       <c r="C56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="93"/>
+        <v>74</v>
+      </c>
+      <c r="D56" s="92"/>
       <c r="E56" s="19"/>
       <c r="F56" s="29"/>
       <c r="G56" s="30"/>
       <c r="H56" s="22">
         <v>6</v>
       </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="24"/>
+      <c r="I56" s="99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K56" s="101"/>
       <c r="L56" s="25"/>
       <c r="M56" s="28"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="86"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="85"/>
     </row>
     <row r="57" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
       <c r="C57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="93"/>
+        <v>75</v>
+      </c>
+      <c r="D57" s="92"/>
       <c r="E57" s="19"/>
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
       <c r="H57" s="22">
         <v>6</v>
       </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
+      <c r="I57" s="99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="K57" s="101"/>
       <c r="L57" s="25"/>
       <c r="M57" s="28"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="86"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="85"/>
     </row>
     <row r="58" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="11"/>
       <c r="C58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="93"/>
+        <v>72</v>
+      </c>
+      <c r="D58" s="92"/>
       <c r="E58" s="19"/>
       <c r="F58" s="29"/>
       <c r="G58" s="30"/>
       <c r="H58" s="22">
         <v>6</v>
       </c>
-      <c r="I58" s="23">
-        <f>SUM(D58:E58)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="102"/>
+      <c r="I58" s="99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="101"/>
       <c r="L58" s="25"/>
       <c r="M58" s="28"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="86"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="85"/>
     </row>
     <row r="59" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="11"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="93"/>
+      <c r="C59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="92"/>
       <c r="E59" s="19"/>
       <c r="F59" s="29"/>
       <c r="G59" s="30"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
+      <c r="H59" s="22">
+        <v>6</v>
+      </c>
+      <c r="I59" s="99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="101"/>
       <c r="L59" s="25"/>
       <c r="M59" s="28"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="86"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="85"/>
     </row>
     <row r="60" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="11"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="19"/>
+      <c r="C60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="92">
+        <v>1</v>
+      </c>
+      <c r="E60" s="19">
+        <v>1</v>
+      </c>
       <c r="F60" s="29"/>
       <c r="G60" s="30"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
+      <c r="H60" s="22">
+        <v>6</v>
+      </c>
+      <c r="I60" s="99">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="J60" s="23">
+        <f>SUM(D60:E60)</f>
+        <v>2</v>
+      </c>
+      <c r="K60" s="102"/>
       <c r="L60" s="25"/>
       <c r="M60" s="28"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="86"/>
+      <c r="N60" s="87"/>
+      <c r="O60" s="85"/>
     </row>
     <row r="61" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="11"/>
-      <c r="C61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="93"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="92"/>
       <c r="E61" s="19"/>
       <c r="F61" s="29"/>
       <c r="G61" s="30"/>
       <c r="H61" s="22"/>
       <c r="I61" s="23"/>
-      <c r="J61" s="24"/>
+      <c r="J61" s="23"/>
       <c r="K61" s="24"/>
       <c r="L61" s="25"/>
       <c r="M61" s="28"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="86"/>
+      <c r="N61" s="87"/>
+      <c r="O61" s="85"/>
     </row>
     <row r="62" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="11"/>
-      <c r="C62" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="93"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="92"/>
       <c r="E62" s="19"/>
       <c r="F62" s="29"/>
       <c r="G62" s="30"/>
-      <c r="H62" s="22">
-        <v>7</v>
-      </c>
-      <c r="I62" s="23">
-        <f>SUM(D62:E62)</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="24">
-        <f t="shared" ref="J62:J65" si="7">I62/8</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="100">
-        <f>SUM(J62:J65)</f>
-        <v>0</v>
-      </c>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="24"/>
       <c r="L62" s="25"/>
       <c r="M62" s="28"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="86"/>
+      <c r="N62" s="87"/>
+      <c r="O62" s="85"/>
     </row>
     <row r="63" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="11"/>
-      <c r="C63" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="93"/>
+      <c r="C63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="92"/>
       <c r="E63" s="19"/>
       <c r="F63" s="29"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="22">
-        <v>7</v>
-      </c>
-      <c r="I63" s="23">
-        <f>SUM(D63:E63)</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="101"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="24"/>
       <c r="L63" s="25"/>
       <c r="M63" s="28"/>
-      <c r="N63" s="88"/>
-      <c r="O63" s="86"/>
+      <c r="N63" s="87"/>
+      <c r="O63" s="85"/>
     </row>
     <row r="64" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
-      <c r="C64" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" s="93"/>
+      <c r="C64" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="92"/>
       <c r="E64" s="19"/>
       <c r="F64" s="29"/>
       <c r="G64" s="30"/>
       <c r="H64" s="22">
         <v>7</v>
       </c>
-      <c r="I64" s="23">
-        <f>SUM(D64:E64)</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="101"/>
+      <c r="I64" s="99">
+        <f t="shared" ref="I64:I67" si="17">(J64*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="23">
+        <f t="shared" ref="J64:J67" si="18">SUM(D64:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="100">
+        <f>SUM(J64:J67)</f>
+        <v>2</v>
+      </c>
       <c r="L64" s="25"/>
       <c r="M64" s="28"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="86"/>
+      <c r="N64" s="87"/>
+      <c r="O64" s="85"/>
     </row>
     <row r="65" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="11"/>
-      <c r="C65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="93"/>
+      <c r="C65" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="92"/>
       <c r="E65" s="19"/>
       <c r="F65" s="29"/>
       <c r="G65" s="30"/>
       <c r="H65" s="22">
         <v>7</v>
       </c>
-      <c r="I65" s="23">
-        <f>SUM(D65:E65)</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="102"/>
+      <c r="I65" s="99">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="101"/>
       <c r="L65" s="25"/>
       <c r="M65" s="28"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="86"/>
+      <c r="N65" s="87"/>
+      <c r="O65" s="85"/>
     </row>
     <row r="66" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" s="11"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="19"/>
+      <c r="C66" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="92">
+        <v>1</v>
+      </c>
+      <c r="E66" s="19">
+        <v>1</v>
+      </c>
       <c r="F66" s="29"/>
       <c r="G66" s="30"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
+      <c r="H66" s="22">
+        <v>7</v>
+      </c>
+      <c r="I66" s="99">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="J66" s="23">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="K66" s="101"/>
       <c r="L66" s="25"/>
       <c r="M66" s="28"/>
-      <c r="N66" s="88"/>
-      <c r="O66" s="86"/>
+      <c r="N66" s="87"/>
+      <c r="O66" s="85"/>
     </row>
     <row r="67" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="11"/>
-      <c r="C67" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" s="93"/>
+      <c r="C67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="92"/>
       <c r="E67" s="19"/>
       <c r="F67" s="29"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
+      <c r="H67" s="22">
+        <v>7</v>
+      </c>
+      <c r="I67" s="99">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="102"/>
       <c r="L67" s="25"/>
       <c r="M67" s="28"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="86"/>
+      <c r="N67" s="87"/>
+      <c r="O67" s="85"/>
     </row>
     <row r="68" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
-      <c r="C68" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="93"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="92"/>
       <c r="E68" s="19"/>
       <c r="F68" s="29"/>
       <c r="G68" s="30"/>
-      <c r="H68" s="22">
-        <v>8</v>
-      </c>
-      <c r="I68" s="23">
-        <f>SUM(D68:E68)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="24">
-        <f t="shared" ref="J68" si="8">I68/8</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="92">
-        <f>J68</f>
-        <v>0</v>
-      </c>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="24"/>
       <c r="L68" s="25"/>
       <c r="M68" s="28"/>
-      <c r="N68" s="88"/>
-      <c r="O68" s="86"/>
+      <c r="N68" s="87"/>
+      <c r="O68" s="85"/>
     </row>
     <row r="69" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" s="11"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="93"/>
+      <c r="C69" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="92"/>
       <c r="E69" s="19"/>
       <c r="F69" s="29"/>
       <c r="G69" s="30"/>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
-      <c r="J69" s="24"/>
+      <c r="J69" s="23"/>
       <c r="K69" s="24"/>
       <c r="L69" s="25"/>
       <c r="M69" s="28"/>
-      <c r="N69" s="88"/>
-      <c r="O69" s="86"/>
+      <c r="N69" s="87"/>
+      <c r="O69" s="85"/>
     </row>
     <row r="70" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="11"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="93"/>
+      <c r="C70" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="92"/>
       <c r="E70" s="19"/>
       <c r="F70" s="29"/>
       <c r="G70" s="30"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
+      <c r="H70" s="22">
+        <v>8</v>
+      </c>
+      <c r="I70" s="99">
+        <f t="shared" ref="I70" si="19">(J70*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="23">
+        <f t="shared" ref="J70" si="20">SUM(D70:E70)</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="91">
+        <f>J70</f>
+        <v>0</v>
+      </c>
       <c r="L70" s="25"/>
       <c r="M70" s="28"/>
-      <c r="N70" s="88"/>
-      <c r="O70" s="86"/>
+      <c r="N70" s="87"/>
+      <c r="O70" s="85"/>
     </row>
     <row r="71" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="93"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="92"/>
       <c r="E71" s="19"/>
       <c r="F71" s="29"/>
       <c r="G71" s="30"/>
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
-      <c r="J71" s="24"/>
+      <c r="J71" s="23"/>
       <c r="K71" s="24"/>
       <c r="L71" s="25"/>
       <c r="M71" s="28"/>
-      <c r="N71" s="88"/>
-      <c r="O71" s="86"/>
+      <c r="N71" s="87"/>
+      <c r="O71" s="85"/>
     </row>
     <row r="72" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" s="11"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="93"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="92"/>
       <c r="E72" s="19"/>
       <c r="F72" s="29"/>
       <c r="G72" s="30"/>
       <c r="H72" s="22"/>
       <c r="I72" s="23"/>
-      <c r="J72" s="24"/>
+      <c r="J72" s="23"/>
       <c r="K72" s="24"/>
       <c r="L72" s="25"/>
       <c r="M72" s="28"/>
       <c r="N72" s="87"/>
-      <c r="O72" s="86"/>
-    </row>
-    <row r="73" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="34"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="71"/>
+      <c r="O72" s="85"/>
+    </row>
+    <row r="73" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B73" s="11"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="25"/>
       <c r="M73" s="28"/>
       <c r="N73" s="87"/>
-      <c r="O73" s="86"/>
+      <c r="O73" s="85"/>
     </row>
     <row r="74" spans="2:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="C74" s="35" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="86"/>
+      <c r="O74" s="85"/>
+    </row>
+    <row r="75" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="34"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="68"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="86"/>
+      <c r="O75" s="85"/>
+    </row>
+    <row r="76" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C76" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="36">
-        <f>SUM(D12:D73)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E74" s="99">
-        <f>SUM(E12:E73)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F74" s="37">
-        <f>SUM(F12:F73)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="38">
-        <f>SUM(G12:G73)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="36"/>
-      <c r="I74" s="39">
-        <f>SUM(I12:I73)</f>
-        <v>1</v>
-      </c>
-      <c r="J74" s="64">
-        <f>SUM(J12:J73)</f>
-        <v>0.125</v>
-      </c>
-      <c r="K74" s="64">
-        <f>SUM(K12:K73)</f>
-        <v>0.125</v>
-      </c>
-      <c r="L74" s="40">
-        <f>SUM(L12:L73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="C75" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="4">
-        <f>D76 * 8</f>
-        <v>4</v>
-      </c>
-      <c r="H75" s="80"/>
-      <c r="I75" s="81"/>
-      <c r="J75" s="81"/>
-      <c r="K75" s="81"/>
-      <c r="L75" s="49"/>
-    </row>
-    <row r="76" spans="2:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="C76" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="4">
-        <f>SUM(D16:D71)</f>
-        <v>0.5</v>
+      <c r="D76" s="36">
+        <f>SUM(D12:D75)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E76" s="98">
+        <f>SUM(E12:E75)</f>
+        <v>9.5</v>
+      </c>
+      <c r="F76" s="37">
+        <f>SUM(F12:F75)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="38">
+        <f>SUM(G12:G75)</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="36"/>
+      <c r="I76" s="39">
+        <f>SUM(I12:I75)</f>
+        <v>152</v>
+      </c>
+      <c r="J76" s="39">
+        <f>SUM(J12:J75)</f>
+        <v>19</v>
+      </c>
+      <c r="K76" s="63">
+        <f>SUM(K12:K75)</f>
+        <v>19</v>
+      </c>
+      <c r="L76" s="40">
+        <f>SUM(L12:L75)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C77" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77" s="4">
-        <f>E78 * 8</f>
-        <v>4</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D77" s="4">
+        <f>D78 * 8</f>
+        <v>76</v>
+      </c>
+      <c r="H77" s="79"/>
+      <c r="I77" s="80"/>
+      <c r="J77" s="80"/>
+      <c r="K77" s="80"/>
+      <c r="L77" s="48"/>
     </row>
     <row r="78" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C78" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E78" s="4">
-        <f>SUM(E15:E72)</f>
-        <v>0.5</v>
+        <v>91</v>
+      </c>
+      <c r="D78" s="4">
+        <f>SUM(D16:D73)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C79" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" s="4">
+        <f>E80 * 8</f>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C80" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="4">
+        <f>SUM(E15:E74)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C82" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D80" s="4">
-        <f>SUM(D75,E77)</f>
+      <c r="D82" s="4">
+        <f>SUM(D77,E79)</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C83" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="4">
+        <f>SUM(D78,E80)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="9"/>
+      <c r="B87" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B88" s="49">
+        <v>1</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="81" t="e">
+        <f>SUM(#REF!*cxc_pm_loading)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E88" s="51" t="e">
+        <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F88" s="52" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B89" s="53">
+        <v>2</v>
+      </c>
+      <c r="C89" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" s="82" t="e">
+        <f>SUM(#REF!*cxc_pm_loading)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E89" s="43" t="e">
+        <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F89" s="54" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B90" s="53">
+        <v>3</v>
+      </c>
+      <c r="C90" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="82" t="e">
+        <f>SUM(#REF!*cxc_pm_loading)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E90" s="43" t="e">
+        <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F90" s="54" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B91" s="53">
+        <v>4</v>
+      </c>
+      <c r="C91" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="82" t="e">
+        <f>SUM(#REF!*cxc_pm_loading)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E91" s="43" t="e">
+        <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F91" s="54" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B92" s="53">
+        <v>5</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" s="82" t="e">
+        <f>SUM(#REF!*cxc_pm_loading)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E92" s="43" t="e">
+        <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F92" s="54" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B93" s="53">
+        <v>6</v>
+      </c>
+      <c r="C93" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" s="82" t="e">
+        <f>SUM(#REF!*cxc_pm_loading)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E93" s="43" t="e">
+        <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F93" s="54" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B94" s="53">
+        <v>7</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D94" s="82" t="e">
+        <f>SUM(#REF!*cxc_pm_loading)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E94" s="43" t="e">
+        <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F94" s="54" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B95" s="53">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C81" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D81" s="4">
-        <f>SUM(D76,E78)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="9"/>
-      <c r="B85" s="73" t="s">
+      <c r="C95" s="48"/>
+      <c r="D95" s="82" t="e">
+        <f>SUM(#REF!*cxc_pm_loading)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E95" s="43" t="e">
+        <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F95" s="54" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B96" s="53">
+        <v>9</v>
+      </c>
+      <c r="C96" s="48"/>
+      <c r="D96" s="82" t="e">
+        <f>SUM(#REF!*cxc_pm_loading)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E96" s="43" t="e">
+        <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F96" s="54" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+    </row>
+    <row r="97" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B97" s="53">
         <v>10</v>
       </c>
-      <c r="C85" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B86" s="50">
-        <v>1</v>
-      </c>
-      <c r="C86" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" s="82" t="e">
+      <c r="C97" s="48"/>
+      <c r="D97" s="82" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E86" s="52" t="e">
-        <f>(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F86" s="53" t="e">
+      <c r="E97" s="43" t="e">
+        <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F97" s="54" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B87" s="54">
-        <v>2</v>
-      </c>
-      <c r="C87" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="83" t="e">
+      <c r="G97" s="47"/>
+      <c r="H97" s="62"/>
+    </row>
+    <row r="98" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="55">
+        <v>11</v>
+      </c>
+      <c r="C98" s="56"/>
+      <c r="D98" s="83" t="e">
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v>#REF!</v>
       </c>
-      <c r="E87" s="44" t="e">
-        <f>(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F87" s="55" t="e">
+      <c r="E98" s="57" t="e">
+        <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F98" s="58" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B88" s="54">
-        <v>3</v>
-      </c>
-      <c r="C88" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="83" t="e">
-        <f>SUM(#REF!*cxc_pm_loading)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E88" s="44" t="e">
-        <f>(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F88" s="55" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B89" s="54">
-        <v>4</v>
-      </c>
-      <c r="C89" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="83" t="e">
-        <f>SUM(#REF!*cxc_pm_loading)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E89" s="44" t="e">
-        <f>(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F89" s="55" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B90" s="54">
-        <v>5</v>
-      </c>
-      <c r="C90" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D90" s="83" t="e">
-        <f>SUM(#REF!*cxc_pm_loading)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E90" s="44" t="e">
-        <f>(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F90" s="55" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B91" s="54">
-        <v>6</v>
-      </c>
-      <c r="C91" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D91" s="83" t="e">
-        <f>SUM(#REF!*cxc_pm_loading)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E91" s="44" t="e">
-        <f>(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F91" s="55" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B92" s="54">
-        <v>7</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D92" s="83" t="e">
-        <f>SUM(#REF!*cxc_pm_loading)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E92" s="44" t="e">
-        <f>(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F92" s="55" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B93" s="54">
-        <v>8</v>
-      </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="83" t="e">
-        <f>SUM(#REF!*cxc_pm_loading)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E93" s="44" t="e">
-        <f>(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F93" s="55" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B94" s="54">
-        <v>9</v>
-      </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="83" t="e">
-        <f>SUM(#REF!*cxc_pm_loading)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E94" s="44" t="e">
-        <f>(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F94" s="55" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-    </row>
-    <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B95" s="54">
-        <v>10</v>
-      </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="83" t="e">
-        <f>SUM(#REF!*cxc_pm_loading)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E95" s="44" t="e">
-        <f>(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F95" s="55" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G95" s="48"/>
-      <c r="H95" s="63"/>
-    </row>
-    <row r="96" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="56">
-        <v>11</v>
-      </c>
-      <c r="C96" s="57"/>
-      <c r="D96" s="84" t="e">
-        <f>SUM(#REF!*cxc_pm_loading)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E96" s="58" t="e">
-        <f>(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table2246344323[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F96" s="59" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="60"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="61" t="e">
+    <row r="99" spans="2:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="60" t="e">
         <f>SUBTOTAL(109,Table2246344323[CXC PM])</f>
         <v>#REF!</v>
       </c>
-      <c r="E97" s="62" t="e">
+      <c r="E99" s="61" t="e">
         <f>SUBTOTAL(109,Table2246344323[T&amp;E])</f>
         <v>#REF!</v>
       </c>
-      <c r="F97" s="78" t="e">
+      <c r="F99" s="77" t="e">
         <f>SUBTOTAL(109,Table2246344323[Total Price])</f>
         <v>#REF!</v>
       </c>
-      <c r="G97" s="79" t="s">
+      <c r="G99" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="H97" s="45"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D98" s="72" t="s">
+      <c r="H99" s="44"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D100" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="72" t="s">
+      <c r="E100" s="71" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="2:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="C99" s="42" t="s">
+    <row r="101" spans="2:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C101" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="77" t="e">
+      <c r="D101" s="76" t="e">
         <f>Table2246344323[[#Totals],[CXC PM]]*cxc_rate</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J102" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="K49:K58"/>
-    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="K49:K60"/>
+    <mergeCell ref="K64:K67"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="K16:K18"/>
     <mergeCell ref="K21:K25"/>
@@ -8119,9 +8343,9 @@
     <mergeCell ref="K34:K37"/>
     <mergeCell ref="K41:K46"/>
   </mergeCells>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F99">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$N$98</formula>
+      <formula>$N$100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/loesite/LoETemplate/Security LoE Template v0.2.xlsx
+++ b/loesite/LoETemplate/Security LoE Template v0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyuan/Documents/python-new-code/LoEGenerator/loesite/LoETemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028715A6-4BDE-8B49-BF49-23C76AA14FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0882642-1FF9-104F-89FA-D2241E208211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{DD2A946F-6D3A-7849-BD37-46E8930633EC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{DD2A946F-6D3A-7849-BD37-46E8930633EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Stealthwatch" sheetId="7" r:id="rId1"/>
@@ -655,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1389,6 +1389,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1A0C7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB1A0C7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1397,7 +1428,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1524,15 +1555,13 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="12" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="11" fillId="12" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1548,9 +1577,24 @@
     <xf numFmtId="1" fontId="11" fillId="12" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="12" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="12" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="12" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency 2" xfId="2" xr:uid="{5BF5FB18-9537-9E42-8E5D-856443C9D147}"/>
@@ -1560,6 +1604,209 @@
     <cellStyle name="Per cent 2" xfId="3" xr:uid="{99CA718C-31B5-AA47-8137-DED13E105D13}"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1572,13 +1819,206 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1795,409 +2235,13 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF006100"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2213,18 +2257,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4D9D0CD1-BF1E-694E-B995-38730A346E1C}" name="Table22463443234" displayName="Table22463443234" ref="B81:F93" totalsRowCount="1" headerRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4D9D0CD1-BF1E-694E-B995-38730A346E1C}" name="Table22463443234" displayName="Table22463443234" ref="B81:F93" totalsRowCount="1" headerRowBorderDxfId="28">
   <autoFilter ref="B81:F92" xr:uid="{5B630F52-ADCF-1341-8AF7-58AA0CBFFBE5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C4DCCB2C-D02D-1E48-B9FB-BF74FA198ADB}" name="Milestone" totalsRowDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{DF59596F-F5F7-734D-A461-347031DFB512}" name="Activity" totalsRowDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{466ED3CB-8B88-4D4F-A6B4-0756D84291DD}" name="CXC PM" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="1" xr3:uid="{C4DCCB2C-D02D-1E48-B9FB-BF74FA198ADB}" name="Milestone" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{DF59596F-F5F7-734D-A461-347031DFB512}" name="Activity" totalsRowDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{466ED3CB-8B88-4D4F-A6B4-0756D84291DD}" name="CXC PM" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>SUM(#REF!*cxc_pm_loading)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8905AC61-1B06-CA45-8D5B-B965971E7549}" name="T&amp;E" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="11" xr3:uid="{8905AC61-1B06-CA45-8D5B-B965971E7549}" name="T&amp;E" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{61FB0C72-2362-DC41-B0D2-F8A3EFA12609}" name="Total Price" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="5" xr3:uid="{61FB0C72-2362-DC41-B0D2-F8A3EFA12609}" name="Total Price" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2233,18 +2277,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8309EA3-C2E1-9040-AB8C-5BA07F801FA8}" name="Table224634432" displayName="Table224634432" ref="B85:F97" totalsRowCount="1" headerRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8309EA3-C2E1-9040-AB8C-5BA07F801FA8}" name="Table224634432" displayName="Table224634432" ref="B85:F97" totalsRowCount="1" headerRowBorderDxfId="18">
   <autoFilter ref="B85:F96" xr:uid="{5B630F52-ADCF-1341-8AF7-58AA0CBFFBE5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{41C3850F-50A1-AA40-8A73-7D6AEE64B3B9}" name="Milestone" totalsRowDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{8BD151C3-6998-384C-94AF-ECB9914F3E74}" name="Activity" totalsRowDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{50FC100B-AEDA-AE47-BDA3-78977670B27F}" name="CXC PM" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{41C3850F-50A1-AA40-8A73-7D6AEE64B3B9}" name="Milestone" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{8BD151C3-6998-384C-94AF-ECB9914F3E74}" name="Activity" totalsRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{50FC100B-AEDA-AE47-BDA3-78977670B27F}" name="CXC PM" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>SUM(#REF!*cxc_pm_loading)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{382C7646-185C-D245-9A3E-79255DE1FEFD}" name="T&amp;E" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="11" xr3:uid="{382C7646-185C-D245-9A3E-79255DE1FEFD}" name="T&amp;E" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F51415E-CF32-344F-86A8-E0ED37A69B60}" name="Total Price" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="5" xr3:uid="{4F51415E-CF32-344F-86A8-E0ED37A69B60}" name="Total Price" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2253,18 +2297,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD577325-49DC-944A-8FF0-B63B4E2F4574}" name="Table2246344323" displayName="Table2246344323" ref="B87:F99" totalsRowCount="1" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD577325-49DC-944A-8FF0-B63B4E2F4574}" name="Table2246344323" displayName="Table2246344323" ref="B87:F99" totalsRowCount="1" headerRowBorderDxfId="8">
   <autoFilter ref="B87:F98" xr:uid="{5B630F52-ADCF-1341-8AF7-58AA0CBFFBE5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FF7EA73A-C6DB-644C-A092-586BFF46832C}" name="Milestone" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{FE952FCA-4449-A549-9C96-88B6742CA4C1}" name="Activity" totalsRowDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{E3C9D12B-5FE2-6641-853A-DCEE4F5B7302}" name="CXC PM" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{FF7EA73A-C6DB-644C-A092-586BFF46832C}" name="Milestone" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FE952FCA-4449-A549-9C96-88B6742CA4C1}" name="Activity" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{E3C9D12B-5FE2-6641-853A-DCEE4F5B7302}" name="CXC PM" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>SUM(#REF!*cxc_pm_loading)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AC5004FA-1FBA-CE48-BF2C-099BF6AB6B32}" name="T&amp;E" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="11" xr3:uid="{AC5004FA-1FBA-CE48-BF2C-099BF6AB6B32}" name="T&amp;E" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4E49E307-6E24-7749-B44A-E696E6FC09D1}" name="Total Price" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="5" xr3:uid="{4E49E307-6E24-7749-B44A-E696E6FC09D1}" name="Total Price" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2571,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D050ED-9275-AD4B-88CD-E164C58F1F52}">
   <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2593,10 +2637,10 @@
       <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="104"/>
+      <c r="B2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="106"/>
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
@@ -2759,8 +2803,12 @@
       <c r="C16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.5</v>
+      </c>
       <c r="F16" s="29"/>
       <c r="G16" s="30"/>
       <c r="H16" s="22">
@@ -2768,15 +2816,15 @@
       </c>
       <c r="I16" s="99">
         <f>(J16*8)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J16" s="23">
         <f>SUM(D16:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="105">
+        <v>1</v>
+      </c>
+      <c r="K16" s="107">
         <f>SUM(J16:J18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="28"/>
@@ -2803,7 +2851,7 @@
         <f t="shared" ref="J17:J18" si="1">SUM(D17:E17)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="106"/>
+      <c r="K17" s="108"/>
       <c r="L17" s="25"/>
       <c r="M17" s="28"/>
       <c r="N17" s="88"/>
@@ -2829,7 +2877,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="107"/>
+      <c r="K18" s="109"/>
       <c r="L18" s="25"/>
       <c r="M18" s="28"/>
       <c r="N18" s="88"/>
@@ -2882,16 +2930,16 @@
         <v>2</v>
       </c>
       <c r="I21" s="99">
-        <f t="shared" ref="I21:I25" si="2">(J21*8)</f>
+        <f t="shared" ref="I21:I24" si="2">(J21*8)</f>
         <v>0</v>
       </c>
       <c r="J21" s="23">
         <f>SUM(D21:E21)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="105">
-        <f>SUM(J21:J25)</f>
-        <v>0</v>
+      <c r="K21" s="110">
+        <f>SUM(J21:J24)</f>
+        <v>3</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="28"/>
@@ -2918,7 +2966,7 @@
         <f>SUM(D22:E22)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="106"/>
+      <c r="K22" s="111"/>
       <c r="L22" s="25"/>
       <c r="M22" s="28"/>
       <c r="N22" s="87"/>
@@ -2929,8 +2977,12 @@
       <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="19"/>
+      <c r="D23" s="92">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
       <c r="H23" s="22">
@@ -2938,13 +2990,13 @@
       </c>
       <c r="I23" s="99">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J23" s="23">
-        <f t="shared" ref="J23:J25" si="3">SUM(D23:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="106"/>
+        <f t="shared" ref="J23:J24" si="3">SUM(D23:E23)</f>
+        <v>2</v>
+      </c>
+      <c r="K23" s="111"/>
       <c r="L23" s="25"/>
       <c r="M23" s="28"/>
       <c r="N23" s="88"/>
@@ -2955,8 +3007,12 @@
       <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="19"/>
+      <c r="D24" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0.5</v>
+      </c>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
       <c r="H24" s="22">
@@ -2964,13 +3020,13 @@
       </c>
       <c r="I24" s="99">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J24" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="106"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="112"/>
       <c r="L24" s="25"/>
       <c r="M24" s="28"/>
       <c r="N24" s="88"/>
@@ -2983,18 +3039,10 @@
       <c r="E25" s="19"/>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="22">
-        <v>0</v>
-      </c>
-      <c r="I25" s="99">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="106"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="104"/>
       <c r="L25" s="25"/>
       <c r="M25" s="28"/>
       <c r="N25" s="88"/>
@@ -3010,7 +3058,7 @@
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
-      <c r="K26" s="46"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="25"/>
       <c r="M26" s="28"/>
       <c r="N26" s="88"/>
@@ -3054,9 +3102,9 @@
         <f t="shared" ref="J28:J31" si="5">SUM(D28:E28)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="105">
+      <c r="K28" s="107">
         <f>SUM(J28:J31)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="28"/>
@@ -3083,7 +3131,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K29" s="106"/>
+      <c r="K29" s="108"/>
       <c r="L29" s="25"/>
       <c r="M29" s="28"/>
       <c r="N29" s="88"/>
@@ -3094,8 +3142,12 @@
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="19"/>
+      <c r="D30" s="92">
+        <v>1</v>
+      </c>
+      <c r="E30" s="19">
+        <v>1</v>
+      </c>
       <c r="F30" s="29"/>
       <c r="G30" s="30"/>
       <c r="H30" s="22">
@@ -3103,13 +3155,13 @@
       </c>
       <c r="I30" s="99">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J30" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="106"/>
+        <v>2</v>
+      </c>
+      <c r="K30" s="108"/>
       <c r="L30" s="25"/>
       <c r="M30" s="28"/>
       <c r="N30" s="87"/>
@@ -3120,8 +3172,12 @@
       <c r="C31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="19"/>
+      <c r="D31" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.5</v>
+      </c>
       <c r="F31" s="29"/>
       <c r="G31" s="30"/>
       <c r="H31" s="22">
@@ -3129,13 +3185,13 @@
       </c>
       <c r="I31" s="99">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J31" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="106"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="108"/>
       <c r="L31" s="25"/>
       <c r="M31" s="28"/>
       <c r="N31" s="89"/>
@@ -3195,9 +3251,9 @@
         <f t="shared" ref="J34:J37" si="7">SUM(D34:E34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="105">
+      <c r="K34" s="107">
         <f>SUM(J34:J37)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="28"/>
@@ -3224,7 +3280,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K35" s="106"/>
+      <c r="K35" s="108"/>
       <c r="L35" s="25"/>
       <c r="M35" s="28"/>
       <c r="N35" s="87"/>
@@ -3235,8 +3291,12 @@
       <c r="C36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="92"/>
-      <c r="E36" s="19"/>
+      <c r="D36" s="92">
+        <v>1</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1</v>
+      </c>
       <c r="F36" s="29"/>
       <c r="G36" s="30"/>
       <c r="H36" s="22">
@@ -3244,13 +3304,13 @@
       </c>
       <c r="I36" s="99">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J36" s="23">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="106"/>
+        <v>2</v>
+      </c>
+      <c r="K36" s="108"/>
       <c r="L36" s="25"/>
       <c r="M36" s="28"/>
       <c r="N36" s="89"/>
@@ -3276,7 +3336,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K37" s="107"/>
+      <c r="K37" s="109"/>
       <c r="L37" s="25"/>
       <c r="M37" s="28"/>
       <c r="N37" s="89"/>
@@ -3354,7 +3414,7 @@
         <f t="shared" ref="J41:J46" si="9">SUM(D41:E41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="105">
+      <c r="K41" s="107">
         <f>SUM(J41:J46)</f>
         <v>0</v>
       </c>
@@ -3383,7 +3443,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K42" s="106"/>
+      <c r="K42" s="108"/>
       <c r="L42" s="25"/>
       <c r="M42" s="28"/>
       <c r="N42" s="89"/>
@@ -3409,7 +3469,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K43" s="106"/>
+      <c r="K43" s="108"/>
       <c r="L43" s="25"/>
       <c r="M43" s="28"/>
       <c r="N43" s="89"/>
@@ -3435,7 +3495,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K44" s="106"/>
+      <c r="K44" s="108"/>
       <c r="L44" s="25"/>
       <c r="M44" s="28"/>
       <c r="N44" s="89"/>
@@ -3461,7 +3521,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K45" s="106"/>
+      <c r="K45" s="108"/>
       <c r="L45" s="25"/>
       <c r="M45" s="28"/>
       <c r="N45" s="89"/>
@@ -3487,7 +3547,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K46" s="107"/>
+      <c r="K46" s="109"/>
       <c r="L46" s="25"/>
       <c r="M46" s="28"/>
       <c r="N46" s="87"/>
@@ -3540,16 +3600,16 @@
         <v>6</v>
       </c>
       <c r="I49" s="99">
-        <f t="shared" ref="I49:I58" si="10">(J49*8)</f>
+        <f t="shared" ref="I49:I61" si="10">(J49*8)</f>
         <v>0</v>
       </c>
       <c r="J49" s="23">
-        <f t="shared" ref="J49:J58" si="11">SUM(D49:E49)</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="100">
-        <f>SUM(J49:J58)</f>
-        <v>0</v>
+        <f t="shared" ref="J49:J61" si="11">SUM(D49:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="107">
+        <f>SUM(J49:J54)</f>
+        <v>2</v>
       </c>
       <c r="L49" s="25"/>
       <c r="M49" s="28"/>
@@ -3576,7 +3636,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K50" s="101"/>
+      <c r="K50" s="108"/>
       <c r="L50" s="25"/>
       <c r="M50" s="28"/>
       <c r="N50" s="88"/>
@@ -3602,7 +3662,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K51" s="101"/>
+      <c r="K51" s="108"/>
       <c r="L51" s="25"/>
       <c r="M51" s="28"/>
       <c r="N51" s="87"/>
@@ -3625,10 +3685,10 @@
         <v>0</v>
       </c>
       <c r="J52" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="101"/>
+        <f>SUM(D52:E52)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="108"/>
       <c r="L52" s="25"/>
       <c r="M52" s="28"/>
       <c r="N52" s="87"/>
@@ -3643,7 +3703,9 @@
       <c r="E53" s="19"/>
       <c r="F53" s="29"/>
       <c r="G53" s="30"/>
-      <c r="H53" s="22"/>
+      <c r="H53" s="22">
+        <v>6</v>
+      </c>
       <c r="I53" s="99">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -3652,7 +3714,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K53" s="101"/>
+      <c r="K53" s="108"/>
       <c r="L53" s="25"/>
       <c r="M53" s="28"/>
       <c r="N53" s="87"/>
@@ -3663,8 +3725,12 @@
       <c r="C54" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="92"/>
-      <c r="E54" s="19"/>
+      <c r="D54" s="92">
+        <v>1</v>
+      </c>
+      <c r="E54" s="19">
+        <v>1</v>
+      </c>
       <c r="F54" s="29"/>
       <c r="G54" s="30"/>
       <c r="H54" s="22">
@@ -3672,13 +3738,13 @@
       </c>
       <c r="I54" s="99">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J54" s="23">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="101"/>
+        <v>2</v>
+      </c>
+      <c r="K54" s="109"/>
       <c r="L54" s="25"/>
       <c r="M54" s="28"/>
       <c r="N54" s="87"/>
@@ -3692,15 +3758,9 @@
       <c r="F55" s="29"/>
       <c r="G55" s="30"/>
       <c r="H55" s="22"/>
-      <c r="I55" s="99">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="101"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="33"/>
       <c r="L55" s="25"/>
       <c r="M55" s="28"/>
       <c r="N55" s="87"/>
@@ -3714,15 +3774,9 @@
       <c r="F56" s="29"/>
       <c r="G56" s="30"/>
       <c r="H56" s="22"/>
-      <c r="I56" s="99">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="101"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="33"/>
       <c r="L56" s="25"/>
       <c r="M56" s="28"/>
       <c r="N56" s="87"/>
@@ -3738,15 +3792,9 @@
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
       <c r="H57" s="22"/>
-      <c r="I57" s="99">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="101"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="33"/>
       <c r="L57" s="25"/>
       <c r="M57" s="28"/>
       <c r="N57" s="87"/>
@@ -3772,7 +3820,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K58" s="102"/>
+      <c r="K58" s="113">
+        <f>SUM(J58:J61)</f>
+        <v>2</v>
+      </c>
       <c r="L58" s="25"/>
       <c r="M58" s="28"/>
       <c r="N58" s="87"/>
@@ -3790,9 +3841,15 @@
       <c r="H59" s="22">
         <v>7</v>
       </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="24"/>
+      <c r="I59" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="114"/>
       <c r="L59" s="25"/>
       <c r="M59" s="28"/>
       <c r="N59" s="87"/>
@@ -3803,16 +3860,26 @@
       <c r="C60" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="92"/>
-      <c r="E60" s="19"/>
+      <c r="D60" s="92">
+        <v>1</v>
+      </c>
+      <c r="E60" s="19">
+        <v>1</v>
+      </c>
       <c r="F60" s="29"/>
       <c r="G60" s="30"/>
       <c r="H60" s="22">
         <v>7</v>
       </c>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="24"/>
+      <c r="I60" s="99">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="J60" s="23">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K60" s="114"/>
       <c r="L60" s="25"/>
       <c r="M60" s="28"/>
       <c r="N60" s="87"/>
@@ -3830,9 +3897,15 @@
       <c r="H61" s="22">
         <v>7</v>
       </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="24"/>
+      <c r="I61" s="99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="115"/>
       <c r="L61" s="25"/>
       <c r="M61" s="28"/>
       <c r="N61" s="87"/>
@@ -3846,18 +3919,9 @@
       <c r="F62" s="29"/>
       <c r="G62" s="30"/>
       <c r="H62" s="22"/>
-      <c r="I62" s="99">
-        <f t="shared" ref="I62:I65" si="12">(J62*8)</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="23">
-        <f t="shared" ref="J62:J65" si="13">SUM(D62:E62)</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="100">
-        <f>SUM(J62:J65)</f>
-        <v>0</v>
-      </c>
+      <c r="I62" s="99"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="103"/>
       <c r="L62" s="25"/>
       <c r="M62" s="28"/>
       <c r="N62" s="87"/>
@@ -3873,15 +3937,9 @@
       <c r="F63" s="29"/>
       <c r="G63" s="30"/>
       <c r="H63" s="22"/>
-      <c r="I63" s="99">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="101"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="33"/>
       <c r="L63" s="25"/>
       <c r="M63" s="28"/>
       <c r="N63" s="87"/>
@@ -3900,14 +3958,17 @@
         <v>8</v>
       </c>
       <c r="I64" s="99">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I64:I65" si="12">(J64*8)</f>
         <v>0</v>
       </c>
       <c r="J64" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="101"/>
+        <f t="shared" ref="J64:J65" si="13">SUM(D64:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="113">
+        <f>0+SUM(J64:J65)</f>
+        <v>0</v>
+      </c>
       <c r="L64" s="25"/>
       <c r="M64" s="28"/>
       <c r="N64" s="87"/>
@@ -3922,7 +3983,9 @@
       <c r="E65" s="19"/>
       <c r="F65" s="29"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="22"/>
+      <c r="H65" s="22">
+        <v>8</v>
+      </c>
       <c r="I65" s="99">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -3931,7 +3994,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K65" s="102"/>
+      <c r="K65" s="115"/>
       <c r="L65" s="25"/>
       <c r="M65" s="28"/>
       <c r="N65" s="87"/>
@@ -3977,18 +4040,9 @@
       <c r="F68" s="29"/>
       <c r="G68" s="30"/>
       <c r="H68" s="22"/>
-      <c r="I68" s="99">
-        <f t="shared" ref="I68" si="14">(J68*8)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="23">
-        <f t="shared" ref="J68" si="15">SUM(D68:E68)</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="91">
-        <f>J68</f>
-        <v>0</v>
-      </c>
+      <c r="I68" s="99"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="91"/>
       <c r="L68" s="25"/>
       <c r="M68" s="28"/>
       <c r="N68" s="86"/>
@@ -4015,11 +4069,11 @@
       </c>
       <c r="D70" s="36">
         <f>SUM(D12:D69)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="E70" s="97">
         <f>SUM(E12:E69)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F70" s="37">
         <f>SUM(F12:F69)</f>
@@ -4030,9 +4084,18 @@
         <v>0</v>
       </c>
       <c r="H70" s="36"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="24"/>
+      <c r="I70" s="39">
+        <f>SUM(I12:I69)</f>
+        <v>104</v>
+      </c>
+      <c r="J70" s="39">
+        <f>SUM(J12:J69)</f>
+        <v>13</v>
+      </c>
+      <c r="K70" s="63">
+        <f>SUM(K12:K69)</f>
+        <v>13</v>
+      </c>
       <c r="L70" s="40">
         <f>SUM(L12:L69)</f>
         <v>0</v>
@@ -4044,12 +4107,12 @@
       </c>
       <c r="D71" s="4">
         <f>D72 * 8</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H71" s="79"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="24"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="80"/>
       <c r="L71" s="48"/>
     </row>
     <row r="72" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -4058,23 +4121,17 @@
       </c>
       <c r="D72" s="4">
         <f>SUM(D16:D67)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="24"/>
-    </row>
-    <row r="73" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C73" s="41" t="s">
         <v>92</v>
       </c>
       <c r="E73" s="4">
         <f>E74 * 8</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="69"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="74" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C74" s="41" t="s">
@@ -4082,25 +4139,8 @@
       </c>
       <c r="E74" s="4">
         <f>SUM(E15:E68)</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="39">
-        <f>SUM(I12:I73)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="39">
-        <f>SUM(J12:J73)</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="63">
-        <f>SUM(K12:K73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
-      <c r="K75" s="80"/>
+        <v>6.5</v>
+      </c>
     </row>
     <row r="76" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C76" s="41" t="s">
@@ -4108,7 +4148,7 @@
       </c>
       <c r="D76" s="4">
         <f>SUM(D71,E73)</f>
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -4117,7 +4157,7 @@
       </c>
       <c r="D77" s="4">
         <f>SUM(D72,E74)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -4397,18 +4437,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K62:K65"/>
+  <mergeCells count="9">
+    <mergeCell ref="K49:K54"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="K64:K65"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="K16:K18"/>
-    <mergeCell ref="K21:K25"/>
     <mergeCell ref="K28:K31"/>
     <mergeCell ref="K34:K37"/>
     <mergeCell ref="K41:K46"/>
-    <mergeCell ref="K49:K58"/>
+    <mergeCell ref="K21:K24"/>
   </mergeCells>
   <conditionalFormatting sqref="F93">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>$N$94</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4423,7 +4464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E846BE06-50F3-0A40-BF3B-7CAACDBC3BF2}">
   <dimension ref="A1:V99"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D64" sqref="D64:E64"/>
     </sheetView>
   </sheetViews>
@@ -4445,10 +4486,10 @@
       <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="104"/>
+      <c r="B2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="106"/>
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
@@ -4630,7 +4671,7 @@
         <f>I16 * 8</f>
         <v>8</v>
       </c>
-      <c r="K16" s="105">
+      <c r="K16" s="107">
         <f>SUM(I16:I18)</f>
         <v>1</v>
       </c>
@@ -4659,7 +4700,7 @@
         <f t="shared" ref="J17:J68" si="0">I17 * 8</f>
         <v>0</v>
       </c>
-      <c r="K17" s="106"/>
+      <c r="K17" s="108"/>
       <c r="L17" s="25"/>
       <c r="M17" s="28"/>
       <c r="N17" s="88"/>
@@ -4685,7 +4726,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="107"/>
+      <c r="K18" s="109"/>
       <c r="L18" s="25"/>
       <c r="M18" s="28"/>
       <c r="N18" s="88"/>
@@ -4745,7 +4786,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="105">
+      <c r="K21" s="107">
         <f>SUM(I21:I25)</f>
         <v>3</v>
       </c>
@@ -4774,7 +4815,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="106"/>
+      <c r="K22" s="108"/>
       <c r="L22" s="25"/>
       <c r="M22" s="28"/>
       <c r="N22" s="87"/>
@@ -4804,7 +4845,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K23" s="106"/>
+      <c r="K23" s="108"/>
       <c r="L23" s="25"/>
       <c r="M23" s="28"/>
       <c r="N23" s="88"/>
@@ -4834,7 +4875,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K24" s="106"/>
+      <c r="K24" s="108"/>
       <c r="L24" s="25"/>
       <c r="M24" s="28"/>
       <c r="N24" s="88"/>
@@ -4858,7 +4899,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="106"/>
+      <c r="K25" s="108"/>
       <c r="L25" s="25"/>
       <c r="M25" s="28"/>
       <c r="N25" s="88"/>
@@ -4918,7 +4959,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="105">
+      <c r="K28" s="107">
         <f>SUM(I28:I31)</f>
         <v>3</v>
       </c>
@@ -4947,7 +4988,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="106"/>
+      <c r="K29" s="108"/>
       <c r="L29" s="25"/>
       <c r="M29" s="28"/>
       <c r="N29" s="88"/>
@@ -4977,7 +5018,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K30" s="106"/>
+      <c r="K30" s="108"/>
       <c r="L30" s="25"/>
       <c r="M30" s="28"/>
       <c r="N30" s="87"/>
@@ -5007,7 +5048,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K31" s="106"/>
+      <c r="K31" s="108"/>
       <c r="L31" s="25"/>
       <c r="M31" s="28"/>
       <c r="N31" s="89"/>
@@ -5067,7 +5108,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K34" s="105">
+      <c r="K34" s="107">
         <f>SUM(I34:I37)</f>
         <v>2</v>
       </c>
@@ -5096,7 +5137,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K35" s="106"/>
+      <c r="K35" s="108"/>
       <c r="L35" s="25"/>
       <c r="M35" s="28"/>
       <c r="N35" s="87"/>
@@ -5126,7 +5167,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K36" s="106"/>
+      <c r="K36" s="108"/>
       <c r="L36" s="25"/>
       <c r="M36" s="28"/>
       <c r="N36" s="89"/>
@@ -5152,7 +5193,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K37" s="107"/>
+      <c r="K37" s="109"/>
       <c r="L37" s="25"/>
       <c r="M37" s="28"/>
       <c r="N37" s="89"/>
@@ -5232,7 +5273,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K41" s="105">
+      <c r="K41" s="107">
         <f>SUM(I41:I48)</f>
         <v>0</v>
       </c>
@@ -5261,7 +5302,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K42" s="106"/>
+      <c r="K42" s="108"/>
       <c r="L42" s="25"/>
       <c r="M42" s="28"/>
       <c r="N42" s="89"/>
@@ -5287,7 +5328,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K43" s="106"/>
+      <c r="K43" s="108"/>
       <c r="L43" s="25"/>
       <c r="M43" s="28"/>
       <c r="N43" s="89"/>
@@ -5307,7 +5348,7 @@
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
-      <c r="K44" s="106"/>
+      <c r="K44" s="108"/>
       <c r="L44" s="25"/>
       <c r="M44" s="28"/>
       <c r="N44" s="89"/>
@@ -5327,7 +5368,7 @@
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
-      <c r="K45" s="106"/>
+      <c r="K45" s="108"/>
       <c r="L45" s="25"/>
       <c r="M45" s="28"/>
       <c r="N45" s="89"/>
@@ -5347,7 +5388,7 @@
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
-      <c r="K46" s="106"/>
+      <c r="K46" s="108"/>
       <c r="L46" s="25"/>
       <c r="M46" s="28"/>
       <c r="N46" s="89"/>
@@ -5367,7 +5408,7 @@
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
-      <c r="K47" s="106"/>
+      <c r="K47" s="108"/>
       <c r="L47" s="25"/>
       <c r="M47" s="28"/>
       <c r="N47" s="89"/>
@@ -5393,7 +5434,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K48" s="107"/>
+      <c r="K48" s="109"/>
       <c r="L48" s="25"/>
       <c r="M48" s="28"/>
       <c r="N48" s="87"/>
@@ -5457,7 +5498,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K51" s="100">
+      <c r="K51" s="113">
         <f>SUM(I51:I58)</f>
         <v>4</v>
       </c>
@@ -5486,7 +5527,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K52" s="101"/>
+      <c r="K52" s="114"/>
       <c r="L52" s="25"/>
       <c r="M52" s="28"/>
       <c r="N52" s="88"/>
@@ -5512,7 +5553,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K53" s="101"/>
+      <c r="K53" s="114"/>
       <c r="L53" s="25"/>
       <c r="M53" s="28"/>
       <c r="N53" s="87"/>
@@ -5538,7 +5579,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K54" s="101"/>
+      <c r="K54" s="114"/>
       <c r="L54" s="25"/>
       <c r="M54" s="28"/>
       <c r="N54" s="87"/>
@@ -5564,7 +5605,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K55" s="101"/>
+      <c r="K55" s="114"/>
       <c r="L55" s="25"/>
       <c r="M55" s="28"/>
       <c r="N55" s="87"/>
@@ -5590,7 +5631,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K56" s="101"/>
+      <c r="K56" s="114"/>
       <c r="L56" s="25"/>
       <c r="M56" s="28"/>
       <c r="N56" s="87"/>
@@ -5610,7 +5651,7 @@
       </c>
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
-      <c r="K57" s="101"/>
+      <c r="K57" s="114"/>
       <c r="L57" s="25"/>
       <c r="M57" s="28"/>
       <c r="N57" s="87"/>
@@ -5640,7 +5681,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K58" s="102"/>
+      <c r="K58" s="115"/>
       <c r="L58" s="25"/>
       <c r="M58" s="28"/>
       <c r="N58" s="87"/>
@@ -5716,7 +5757,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K62" s="100">
+      <c r="K62" s="113">
         <f>SUM(I62:I65)</f>
         <v>2</v>
       </c>
@@ -5745,7 +5786,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K63" s="101"/>
+      <c r="K63" s="114"/>
       <c r="L63" s="25"/>
       <c r="M63" s="28"/>
       <c r="N63" s="87"/>
@@ -5775,7 +5816,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K64" s="101"/>
+      <c r="K64" s="114"/>
       <c r="L64" s="25"/>
       <c r="M64" s="28"/>
       <c r="N64" s="87"/>
@@ -5801,7 +5842,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K65" s="102"/>
+      <c r="K65" s="115"/>
       <c r="L65" s="25"/>
       <c r="M65" s="28"/>
       <c r="N65" s="87"/>
@@ -6334,7 +6375,7 @@
     <mergeCell ref="K34:K37"/>
   </mergeCells>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>$N$98</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6349,7 +6390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB391CD-69E0-6A4F-9E05-C5757E2CD4A6}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="131" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="131" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -6371,10 +6412,10 @@
       <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="104"/>
+      <c r="B2" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="106"/>
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
@@ -6556,7 +6597,7 @@
         <f>SUM(D16:E16)</f>
         <v>1</v>
       </c>
-      <c r="K16" s="105">
+      <c r="K16" s="107">
         <f>SUM(J16:J18)</f>
         <v>1</v>
       </c>
@@ -6585,7 +6626,7 @@
         <f t="shared" ref="J17:J18" si="1">SUM(D17:E17)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="106"/>
+      <c r="K17" s="108"/>
       <c r="L17" s="25"/>
       <c r="M17" s="28"/>
       <c r="N17" s="88"/>
@@ -6611,7 +6652,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="107"/>
+      <c r="K18" s="109"/>
       <c r="L18" s="25"/>
       <c r="M18" s="28"/>
       <c r="N18" s="88"/>
@@ -6671,7 +6712,7 @@
         <f>SUM(D21:E21)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="105">
+      <c r="K21" s="107">
         <f>SUM(J21:J25)</f>
         <v>3</v>
       </c>
@@ -6700,7 +6741,7 @@
         <f>SUM(D22:E22)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="106"/>
+      <c r="K22" s="108"/>
       <c r="L22" s="25"/>
       <c r="M22" s="28"/>
       <c r="N22" s="87"/>
@@ -6711,10 +6752,10 @@
       <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="108">
+      <c r="D23" s="100">
         <v>1</v>
       </c>
-      <c r="E23" s="109">
+      <c r="E23" s="101">
         <v>1</v>
       </c>
       <c r="F23" s="29"/>
@@ -6730,7 +6771,7 @@
         <f t="shared" ref="J23:J25" si="3">SUM(D23:E23)</f>
         <v>2</v>
       </c>
-      <c r="K23" s="106"/>
+      <c r="K23" s="108"/>
       <c r="L23" s="25"/>
       <c r="M23" s="28"/>
       <c r="N23" s="88"/>
@@ -6741,10 +6782,10 @@
       <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="108">
+      <c r="D24" s="100">
         <v>0.5</v>
       </c>
-      <c r="E24" s="110">
+      <c r="E24" s="102">
         <v>0.5</v>
       </c>
       <c r="F24" s="29"/>
@@ -6760,7 +6801,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K24" s="106"/>
+      <c r="K24" s="108"/>
       <c r="L24" s="25"/>
       <c r="M24" s="28"/>
       <c r="N24" s="88"/>
@@ -6784,7 +6825,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K25" s="106"/>
+      <c r="K25" s="108"/>
       <c r="L25" s="25"/>
       <c r="M25" s="28"/>
       <c r="N25" s="88"/>
@@ -6844,7 +6885,7 @@
         <f t="shared" ref="J28:J31" si="5">SUM(D28:E28)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="105">
+      <c r="K28" s="107">
         <f>SUM(J28:J31)</f>
         <v>3</v>
       </c>
@@ -6873,7 +6914,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K29" s="106"/>
+      <c r="K29" s="108"/>
       <c r="L29" s="25"/>
       <c r="M29" s="28"/>
       <c r="N29" s="88"/>
@@ -6903,7 +6944,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K30" s="106"/>
+      <c r="K30" s="108"/>
       <c r="L30" s="25"/>
       <c r="M30" s="28"/>
       <c r="N30" s="87"/>
@@ -6933,7 +6974,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K31" s="106"/>
+      <c r="K31" s="108"/>
       <c r="L31" s="25"/>
       <c r="M31" s="28"/>
       <c r="N31" s="89"/>
@@ -6993,7 +7034,7 @@
         <f t="shared" ref="J34:J37" si="7">SUM(D34:E34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="105">
+      <c r="K34" s="107">
         <f>SUM(J34:J37)</f>
         <v>2</v>
       </c>
@@ -7022,7 +7063,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K35" s="106"/>
+      <c r="K35" s="108"/>
       <c r="L35" s="25"/>
       <c r="M35" s="28"/>
       <c r="N35" s="87"/>
@@ -7052,7 +7093,7 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K36" s="106"/>
+      <c r="K36" s="108"/>
       <c r="L36" s="25"/>
       <c r="M36" s="28"/>
       <c r="N36" s="89"/>
@@ -7078,7 +7119,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K37" s="107"/>
+      <c r="K37" s="109"/>
       <c r="L37" s="25"/>
       <c r="M37" s="28"/>
       <c r="N37" s="89"/>
@@ -7156,7 +7197,7 @@
         <f t="shared" ref="J41:J45" si="9">SUM(D41:E41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="105">
+      <c r="K41" s="107">
         <f>SUM(J41:J46)</f>
         <v>0</v>
       </c>
@@ -7185,7 +7226,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K42" s="106"/>
+      <c r="K42" s="108"/>
       <c r="L42" s="25"/>
       <c r="M42" s="28"/>
       <c r="N42" s="89"/>
@@ -7211,7 +7252,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K43" s="106"/>
+      <c r="K43" s="108"/>
       <c r="L43" s="25"/>
       <c r="M43" s="28"/>
       <c r="N43" s="89"/>
@@ -7237,7 +7278,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K44" s="106"/>
+      <c r="K44" s="108"/>
       <c r="L44" s="25"/>
       <c r="M44" s="28"/>
       <c r="N44" s="89"/>
@@ -7263,7 +7304,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K45" s="106"/>
+      <c r="K45" s="108"/>
       <c r="L45" s="25"/>
       <c r="M45" s="28"/>
       <c r="N45" s="89"/>
@@ -7289,7 +7330,7 @@
         <f t="shared" ref="J46" si="10">SUM(D46:E46)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="107"/>
+      <c r="K46" s="109"/>
       <c r="L46" s="25"/>
       <c r="M46" s="28"/>
       <c r="N46" s="87"/>
@@ -7353,7 +7394,7 @@
         <f t="shared" ref="J49:J59" si="12">SUM(D49:E49)</f>
         <v>2</v>
       </c>
-      <c r="K49" s="100">
+      <c r="K49" s="113">
         <f>SUM(J49:J60)</f>
         <v>8</v>
       </c>
@@ -7386,7 +7427,7 @@
         <f t="shared" ref="J50" si="14">SUM(D50:E50)</f>
         <v>4</v>
       </c>
-      <c r="K50" s="101"/>
+      <c r="K50" s="114"/>
       <c r="L50" s="25"/>
       <c r="M50" s="28"/>
       <c r="N50" s="87"/>
@@ -7412,7 +7453,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K51" s="101"/>
+      <c r="K51" s="114"/>
       <c r="L51" s="25"/>
       <c r="M51" s="28"/>
       <c r="N51" s="88"/>
@@ -7438,7 +7479,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K52" s="101"/>
+      <c r="K52" s="114"/>
       <c r="L52" s="25"/>
       <c r="M52" s="28"/>
       <c r="N52" s="87"/>
@@ -7464,7 +7505,7 @@
         <f t="shared" ref="J53" si="16">SUM(D53:E53)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="101"/>
+      <c r="K53" s="114"/>
       <c r="L53" s="25"/>
       <c r="M53" s="28"/>
       <c r="N53" s="87"/>
@@ -7490,7 +7531,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K54" s="101"/>
+      <c r="K54" s="114"/>
       <c r="L54" s="25"/>
       <c r="M54" s="28"/>
       <c r="N54" s="87"/>
@@ -7516,7 +7557,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K55" s="101"/>
+      <c r="K55" s="114"/>
       <c r="L55" s="25"/>
       <c r="M55" s="28"/>
       <c r="N55" s="87"/>
@@ -7542,7 +7583,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K56" s="101"/>
+      <c r="K56" s="114"/>
       <c r="L56" s="25"/>
       <c r="M56" s="28"/>
       <c r="N56" s="87"/>
@@ -7568,7 +7609,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K57" s="101"/>
+      <c r="K57" s="114"/>
       <c r="L57" s="25"/>
       <c r="M57" s="28"/>
       <c r="N57" s="87"/>
@@ -7594,7 +7635,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K58" s="101"/>
+      <c r="K58" s="114"/>
       <c r="L58" s="25"/>
       <c r="M58" s="28"/>
       <c r="N58" s="87"/>
@@ -7620,7 +7661,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K59" s="101"/>
+      <c r="K59" s="114"/>
       <c r="L59" s="25"/>
       <c r="M59" s="28"/>
       <c r="N59" s="87"/>
@@ -7650,7 +7691,7 @@
         <f>SUM(D60:E60)</f>
         <v>2</v>
       </c>
-      <c r="K60" s="102"/>
+      <c r="K60" s="115"/>
       <c r="L60" s="25"/>
       <c r="M60" s="28"/>
       <c r="N60" s="87"/>
@@ -7726,7 +7767,7 @@
         <f t="shared" ref="J64:J67" si="18">SUM(D64:E64)</f>
         <v>0</v>
       </c>
-      <c r="K64" s="100">
+      <c r="K64" s="113">
         <f>SUM(J64:J67)</f>
         <v>2</v>
       </c>
@@ -7755,7 +7796,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K65" s="101"/>
+      <c r="K65" s="114"/>
       <c r="L65" s="25"/>
       <c r="M65" s="28"/>
       <c r="N65" s="87"/>
@@ -7785,7 +7826,7 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="K66" s="101"/>
+      <c r="K66" s="114"/>
       <c r="L66" s="25"/>
       <c r="M66" s="28"/>
       <c r="N66" s="87"/>
@@ -7811,7 +7852,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K67" s="102"/>
+      <c r="K67" s="115"/>
       <c r="L67" s="25"/>
       <c r="M67" s="28"/>
       <c r="N67" s="87"/>
@@ -8344,7 +8385,7 @@
     <mergeCell ref="K41:K46"/>
   </mergeCells>
   <conditionalFormatting sqref="F99">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>$N$100</formula>
     </cfRule>
   </conditionalFormatting>

--- a/loesite/LoETemplate/Security LoE Template v0.2.xlsx
+++ b/loesite/LoETemplate/Security LoE Template v0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyuan/Documents/python-new-code/LoEGenerator/loesite/LoETemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0882642-1FF9-104F-89FA-D2241E208211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2209D28-BF17-6C4B-ADBB-FA453BA4C827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{DD2A946F-6D3A-7849-BD37-46E8930633EC}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="35840" windowHeight="20400" activeTab="2" xr2:uid="{DD2A946F-6D3A-7849-BD37-46E8930633EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Stealthwatch" sheetId="7" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="99">
   <si>
     <t>Customer Details</t>
   </si>
@@ -368,6 +368,12 @@
   </si>
   <si>
     <t xml:space="preserve"> - AAA and Realm Integration (optional)</t>
+  </si>
+  <si>
+    <t>Buffer Reservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Buffer Days</t>
   </si>
 </sst>
 </file>
@@ -1562,12 +1568,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="12" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="11" fillId="12" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1577,6 +1577,21 @@
     <xf numFmtId="1" fontId="11" fillId="12" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="11" fillId="12" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1584,15 +1599,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="12" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2615,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D050ED-9275-AD4B-88CD-E164C58F1F52}">
   <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A22" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2637,10 +2643,10 @@
       <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="106"/>
+      <c r="B2" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="112"/>
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
@@ -2822,7 +2828,7 @@
         <f>SUM(D16:E16)</f>
         <v>1</v>
       </c>
-      <c r="K16" s="107">
+      <c r="K16" s="105">
         <f>SUM(J16:J18)</f>
         <v>1</v>
       </c>
@@ -2851,7 +2857,7 @@
         <f t="shared" ref="J17:J18" si="1">SUM(D17:E17)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="108"/>
+      <c r="K17" s="106"/>
       <c r="L17" s="25"/>
       <c r="M17" s="28"/>
       <c r="N17" s="88"/>
@@ -2877,7 +2883,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="109"/>
+      <c r="K18" s="107"/>
       <c r="L18" s="25"/>
       <c r="M18" s="28"/>
       <c r="N18" s="88"/>
@@ -2937,7 +2943,7 @@
         <f>SUM(D21:E21)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="110">
+      <c r="K21" s="113">
         <f>SUM(J21:J24)</f>
         <v>3</v>
       </c>
@@ -2966,7 +2972,7 @@
         <f>SUM(D22:E22)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="111"/>
+      <c r="K22" s="114"/>
       <c r="L22" s="25"/>
       <c r="M22" s="28"/>
       <c r="N22" s="87"/>
@@ -2996,7 +3002,7 @@
         <f t="shared" ref="J23:J24" si="3">SUM(D23:E23)</f>
         <v>2</v>
       </c>
-      <c r="K23" s="111"/>
+      <c r="K23" s="114"/>
       <c r="L23" s="25"/>
       <c r="M23" s="28"/>
       <c r="N23" s="88"/>
@@ -3026,7 +3032,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K24" s="112"/>
+      <c r="K24" s="115"/>
       <c r="L24" s="25"/>
       <c r="M24" s="28"/>
       <c r="N24" s="88"/>
@@ -3102,7 +3108,7 @@
         <f t="shared" ref="J28:J31" si="5">SUM(D28:E28)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="107">
+      <c r="K28" s="105">
         <f>SUM(J28:J31)</f>
         <v>3</v>
       </c>
@@ -3131,7 +3137,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K29" s="108"/>
+      <c r="K29" s="106"/>
       <c r="L29" s="25"/>
       <c r="M29" s="28"/>
       <c r="N29" s="88"/>
@@ -3161,7 +3167,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K30" s="108"/>
+      <c r="K30" s="106"/>
       <c r="L30" s="25"/>
       <c r="M30" s="28"/>
       <c r="N30" s="87"/>
@@ -3191,7 +3197,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K31" s="108"/>
+      <c r="K31" s="106"/>
       <c r="L31" s="25"/>
       <c r="M31" s="28"/>
       <c r="N31" s="89"/>
@@ -3251,7 +3257,7 @@
         <f t="shared" ref="J34:J37" si="7">SUM(D34:E34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="107">
+      <c r="K34" s="105">
         <f>SUM(J34:J37)</f>
         <v>2</v>
       </c>
@@ -3280,7 +3286,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K35" s="108"/>
+      <c r="K35" s="106"/>
       <c r="L35" s="25"/>
       <c r="M35" s="28"/>
       <c r="N35" s="87"/>
@@ -3310,7 +3316,7 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K36" s="108"/>
+      <c r="K36" s="106"/>
       <c r="L36" s="25"/>
       <c r="M36" s="28"/>
       <c r="N36" s="89"/>
@@ -3336,7 +3342,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K37" s="109"/>
+      <c r="K37" s="107"/>
       <c r="L37" s="25"/>
       <c r="M37" s="28"/>
       <c r="N37" s="89"/>
@@ -3414,7 +3420,7 @@
         <f t="shared" ref="J41:J46" si="9">SUM(D41:E41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="107">
+      <c r="K41" s="105">
         <f>SUM(J41:J46)</f>
         <v>0</v>
       </c>
@@ -3443,7 +3449,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K42" s="108"/>
+      <c r="K42" s="106"/>
       <c r="L42" s="25"/>
       <c r="M42" s="28"/>
       <c r="N42" s="89"/>
@@ -3469,7 +3475,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K43" s="108"/>
+      <c r="K43" s="106"/>
       <c r="L43" s="25"/>
       <c r="M43" s="28"/>
       <c r="N43" s="89"/>
@@ -3495,7 +3501,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K44" s="108"/>
+      <c r="K44" s="106"/>
       <c r="L44" s="25"/>
       <c r="M44" s="28"/>
       <c r="N44" s="89"/>
@@ -3521,7 +3527,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K45" s="108"/>
+      <c r="K45" s="106"/>
       <c r="L45" s="25"/>
       <c r="M45" s="28"/>
       <c r="N45" s="89"/>
@@ -3547,7 +3553,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K46" s="109"/>
+      <c r="K46" s="107"/>
       <c r="L46" s="25"/>
       <c r="M46" s="28"/>
       <c r="N46" s="87"/>
@@ -3607,7 +3613,7 @@
         <f t="shared" ref="J49:J61" si="11">SUM(D49:E49)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="107">
+      <c r="K49" s="105">
         <f>SUM(J49:J54)</f>
         <v>2</v>
       </c>
@@ -3636,7 +3642,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K50" s="108"/>
+      <c r="K50" s="106"/>
       <c r="L50" s="25"/>
       <c r="M50" s="28"/>
       <c r="N50" s="88"/>
@@ -3662,7 +3668,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K51" s="108"/>
+      <c r="K51" s="106"/>
       <c r="L51" s="25"/>
       <c r="M51" s="28"/>
       <c r="N51" s="87"/>
@@ -3688,7 +3694,7 @@
         <f>SUM(D52:E52)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="108"/>
+      <c r="K52" s="106"/>
       <c r="L52" s="25"/>
       <c r="M52" s="28"/>
       <c r="N52" s="87"/>
@@ -3714,7 +3720,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K53" s="108"/>
+      <c r="K53" s="106"/>
       <c r="L53" s="25"/>
       <c r="M53" s="28"/>
       <c r="N53" s="87"/>
@@ -3744,7 +3750,7 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="K54" s="109"/>
+      <c r="K54" s="107"/>
       <c r="L54" s="25"/>
       <c r="M54" s="28"/>
       <c r="N54" s="87"/>
@@ -3820,7 +3826,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K58" s="113">
+      <c r="K58" s="108">
         <f>SUM(J58:J61)</f>
         <v>2</v>
       </c>
@@ -3849,7 +3855,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K59" s="114"/>
+      <c r="K59" s="109"/>
       <c r="L59" s="25"/>
       <c r="M59" s="28"/>
       <c r="N59" s="87"/>
@@ -3879,7 +3885,7 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="K60" s="114"/>
+      <c r="K60" s="109"/>
       <c r="L60" s="25"/>
       <c r="M60" s="28"/>
       <c r="N60" s="87"/>
@@ -3905,7 +3911,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K61" s="115"/>
+      <c r="K61" s="110"/>
       <c r="L61" s="25"/>
       <c r="M61" s="28"/>
       <c r="N61" s="87"/>
@@ -3965,7 +3971,7 @@
         <f t="shared" ref="J64:J65" si="13">SUM(D64:E64)</f>
         <v>0</v>
       </c>
-      <c r="K64" s="113">
+      <c r="K64" s="108">
         <f>0+SUM(J64:J65)</f>
         <v>0</v>
       </c>
@@ -3994,7 +4000,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K65" s="115"/>
+      <c r="K65" s="110"/>
       <c r="L65" s="25"/>
       <c r="M65" s="28"/>
       <c r="N65" s="87"/>
@@ -4018,7 +4024,9 @@
     </row>
     <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="11"/>
-      <c r="C67" s="45"/>
+      <c r="C67" s="84" t="s">
+        <v>97</v>
+      </c>
       <c r="D67" s="92"/>
       <c r="E67" s="19"/>
       <c r="F67" s="29"/>
@@ -4034,15 +4042,26 @@
     </row>
     <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
-      <c r="C68" s="18"/>
+      <c r="C68" s="45" t="s">
+        <v>98</v>
+      </c>
       <c r="D68" s="92"/>
       <c r="E68" s="19"/>
       <c r="F68" s="29"/>
       <c r="G68" s="30"/>
       <c r="H68" s="22"/>
-      <c r="I68" s="99"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="91"/>
+      <c r="I68" s="99">
+        <f t="shared" ref="I68" si="14">(J68*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="23">
+        <f t="shared" ref="J68" si="15">SUM(D68:E68)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="91">
+        <f>J68</f>
+        <v>0</v>
+      </c>
       <c r="L68" s="25"/>
       <c r="M68" s="28"/>
       <c r="N68" s="86"/>
@@ -4465,7 +4484,7 @@
   <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:E64"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4486,10 +4505,10 @@
       <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="106"/>
+      <c r="B2" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="112"/>
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
@@ -4671,7 +4690,7 @@
         <f>I16 * 8</f>
         <v>8</v>
       </c>
-      <c r="K16" s="107">
+      <c r="K16" s="105">
         <f>SUM(I16:I18)</f>
         <v>1</v>
       </c>
@@ -4700,7 +4719,7 @@
         <f t="shared" ref="J17:J68" si="0">I17 * 8</f>
         <v>0</v>
       </c>
-      <c r="K17" s="108"/>
+      <c r="K17" s="106"/>
       <c r="L17" s="25"/>
       <c r="M17" s="28"/>
       <c r="N17" s="88"/>
@@ -4726,7 +4745,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="109"/>
+      <c r="K18" s="107"/>
       <c r="L18" s="25"/>
       <c r="M18" s="28"/>
       <c r="N18" s="88"/>
@@ -4786,7 +4805,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="107">
+      <c r="K21" s="105">
         <f>SUM(I21:I25)</f>
         <v>3</v>
       </c>
@@ -4815,7 +4834,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="108"/>
+      <c r="K22" s="106"/>
       <c r="L22" s="25"/>
       <c r="M22" s="28"/>
       <c r="N22" s="87"/>
@@ -4845,7 +4864,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K23" s="108"/>
+      <c r="K23" s="106"/>
       <c r="L23" s="25"/>
       <c r="M23" s="28"/>
       <c r="N23" s="88"/>
@@ -4875,7 +4894,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K24" s="108"/>
+      <c r="K24" s="106"/>
       <c r="L24" s="25"/>
       <c r="M24" s="28"/>
       <c r="N24" s="88"/>
@@ -4899,7 +4918,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="108"/>
+      <c r="K25" s="106"/>
       <c r="L25" s="25"/>
       <c r="M25" s="28"/>
       <c r="N25" s="88"/>
@@ -4959,7 +4978,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="107">
+      <c r="K28" s="105">
         <f>SUM(I28:I31)</f>
         <v>3</v>
       </c>
@@ -4988,7 +5007,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="108"/>
+      <c r="K29" s="106"/>
       <c r="L29" s="25"/>
       <c r="M29" s="28"/>
       <c r="N29" s="88"/>
@@ -5018,7 +5037,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K30" s="108"/>
+      <c r="K30" s="106"/>
       <c r="L30" s="25"/>
       <c r="M30" s="28"/>
       <c r="N30" s="87"/>
@@ -5048,7 +5067,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K31" s="108"/>
+      <c r="K31" s="106"/>
       <c r="L31" s="25"/>
       <c r="M31" s="28"/>
       <c r="N31" s="89"/>
@@ -5108,7 +5127,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K34" s="107">
+      <c r="K34" s="105">
         <f>SUM(I34:I37)</f>
         <v>2</v>
       </c>
@@ -5137,7 +5156,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K35" s="108"/>
+      <c r="K35" s="106"/>
       <c r="L35" s="25"/>
       <c r="M35" s="28"/>
       <c r="N35" s="87"/>
@@ -5167,7 +5186,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K36" s="108"/>
+      <c r="K36" s="106"/>
       <c r="L36" s="25"/>
       <c r="M36" s="28"/>
       <c r="N36" s="89"/>
@@ -5193,7 +5212,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K37" s="109"/>
+      <c r="K37" s="107"/>
       <c r="L37" s="25"/>
       <c r="M37" s="28"/>
       <c r="N37" s="89"/>
@@ -5273,7 +5292,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K41" s="107">
+      <c r="K41" s="105">
         <f>SUM(I41:I48)</f>
         <v>0</v>
       </c>
@@ -5302,7 +5321,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K42" s="108"/>
+      <c r="K42" s="106"/>
       <c r="L42" s="25"/>
       <c r="M42" s="28"/>
       <c r="N42" s="89"/>
@@ -5328,7 +5347,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K43" s="108"/>
+      <c r="K43" s="106"/>
       <c r="L43" s="25"/>
       <c r="M43" s="28"/>
       <c r="N43" s="89"/>
@@ -5348,7 +5367,7 @@
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
-      <c r="K44" s="108"/>
+      <c r="K44" s="106"/>
       <c r="L44" s="25"/>
       <c r="M44" s="28"/>
       <c r="N44" s="89"/>
@@ -5368,7 +5387,7 @@
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
-      <c r="K45" s="108"/>
+      <c r="K45" s="106"/>
       <c r="L45" s="25"/>
       <c r="M45" s="28"/>
       <c r="N45" s="89"/>
@@ -5388,7 +5407,7 @@
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
-      <c r="K46" s="108"/>
+      <c r="K46" s="106"/>
       <c r="L46" s="25"/>
       <c r="M46" s="28"/>
       <c r="N46" s="89"/>
@@ -5408,7 +5427,7 @@
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
-      <c r="K47" s="108"/>
+      <c r="K47" s="106"/>
       <c r="L47" s="25"/>
       <c r="M47" s="28"/>
       <c r="N47" s="89"/>
@@ -5434,7 +5453,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K48" s="109"/>
+      <c r="K48" s="107"/>
       <c r="L48" s="25"/>
       <c r="M48" s="28"/>
       <c r="N48" s="87"/>
@@ -5498,7 +5517,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K51" s="113">
+      <c r="K51" s="108">
         <f>SUM(I51:I58)</f>
         <v>4</v>
       </c>
@@ -5527,7 +5546,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K52" s="114"/>
+      <c r="K52" s="109"/>
       <c r="L52" s="25"/>
       <c r="M52" s="28"/>
       <c r="N52" s="88"/>
@@ -5553,7 +5572,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K53" s="114"/>
+      <c r="K53" s="109"/>
       <c r="L53" s="25"/>
       <c r="M53" s="28"/>
       <c r="N53" s="87"/>
@@ -5579,7 +5598,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K54" s="114"/>
+      <c r="K54" s="109"/>
       <c r="L54" s="25"/>
       <c r="M54" s="28"/>
       <c r="N54" s="87"/>
@@ -5605,7 +5624,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K55" s="114"/>
+      <c r="K55" s="109"/>
       <c r="L55" s="25"/>
       <c r="M55" s="28"/>
       <c r="N55" s="87"/>
@@ -5631,7 +5650,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K56" s="114"/>
+      <c r="K56" s="109"/>
       <c r="L56" s="25"/>
       <c r="M56" s="28"/>
       <c r="N56" s="87"/>
@@ -5651,7 +5670,7 @@
       </c>
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
-      <c r="K57" s="114"/>
+      <c r="K57" s="109"/>
       <c r="L57" s="25"/>
       <c r="M57" s="28"/>
       <c r="N57" s="87"/>
@@ -5681,7 +5700,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K58" s="115"/>
+      <c r="K58" s="110"/>
       <c r="L58" s="25"/>
       <c r="M58" s="28"/>
       <c r="N58" s="87"/>
@@ -5757,7 +5776,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K62" s="113">
+      <c r="K62" s="108">
         <f>SUM(I62:I65)</f>
         <v>2</v>
       </c>
@@ -5786,7 +5805,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K63" s="114"/>
+      <c r="K63" s="109"/>
       <c r="L63" s="25"/>
       <c r="M63" s="28"/>
       <c r="N63" s="87"/>
@@ -5816,7 +5835,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K64" s="114"/>
+      <c r="K64" s="109"/>
       <c r="L64" s="25"/>
       <c r="M64" s="28"/>
       <c r="N64" s="87"/>
@@ -5842,7 +5861,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K65" s="115"/>
+      <c r="K65" s="110"/>
       <c r="L65" s="25"/>
       <c r="M65" s="28"/>
       <c r="N65" s="87"/>
@@ -5929,7 +5948,9 @@
     </row>
     <row r="70" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="11"/>
-      <c r="C70" s="45"/>
+      <c r="C70" s="84" t="s">
+        <v>97</v>
+      </c>
       <c r="D70" s="92"/>
       <c r="E70" s="19"/>
       <c r="F70" s="29"/>
@@ -5945,15 +5966,26 @@
     </row>
     <row r="71" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" s="11"/>
-      <c r="C71" s="45"/>
+      <c r="C71" s="45" t="s">
+        <v>98</v>
+      </c>
       <c r="D71" s="92"/>
       <c r="E71" s="19"/>
       <c r="F71" s="29"/>
       <c r="G71" s="30"/>
       <c r="H71" s="22"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="24"/>
+      <c r="I71" s="99">
+        <f t="shared" ref="I71" si="2">(J71*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="23">
+        <f t="shared" ref="J71" si="3">SUM(D71:E71)</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="91">
+        <f>J71</f>
+        <v>0</v>
+      </c>
       <c r="L71" s="25"/>
       <c r="M71" s="28"/>
       <c r="N71" s="87"/>
@@ -6390,8 +6422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB391CD-69E0-6A4F-9E05-C5757E2CD4A6}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="131" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="131" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6412,10 +6444,10 @@
       <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="106"/>
+      <c r="B2" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="112"/>
       <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
@@ -6597,7 +6629,7 @@
         <f>SUM(D16:E16)</f>
         <v>1</v>
       </c>
-      <c r="K16" s="107">
+      <c r="K16" s="105">
         <f>SUM(J16:J18)</f>
         <v>1</v>
       </c>
@@ -6626,7 +6658,7 @@
         <f t="shared" ref="J17:J18" si="1">SUM(D17:E17)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="108"/>
+      <c r="K17" s="106"/>
       <c r="L17" s="25"/>
       <c r="M17" s="28"/>
       <c r="N17" s="88"/>
@@ -6652,7 +6684,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="109"/>
+      <c r="K18" s="107"/>
       <c r="L18" s="25"/>
       <c r="M18" s="28"/>
       <c r="N18" s="88"/>
@@ -6712,7 +6744,7 @@
         <f>SUM(D21:E21)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="107">
+      <c r="K21" s="105">
         <f>SUM(J21:J25)</f>
         <v>3</v>
       </c>
@@ -6741,7 +6773,7 @@
         <f>SUM(D22:E22)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="108"/>
+      <c r="K22" s="106"/>
       <c r="L22" s="25"/>
       <c r="M22" s="28"/>
       <c r="N22" s="87"/>
@@ -6771,7 +6803,7 @@
         <f t="shared" ref="J23:J25" si="3">SUM(D23:E23)</f>
         <v>2</v>
       </c>
-      <c r="K23" s="108"/>
+      <c r="K23" s="106"/>
       <c r="L23" s="25"/>
       <c r="M23" s="28"/>
       <c r="N23" s="88"/>
@@ -6801,7 +6833,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K24" s="108"/>
+      <c r="K24" s="106"/>
       <c r="L24" s="25"/>
       <c r="M24" s="28"/>
       <c r="N24" s="88"/>
@@ -6825,7 +6857,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K25" s="108"/>
+      <c r="K25" s="106"/>
       <c r="L25" s="25"/>
       <c r="M25" s="28"/>
       <c r="N25" s="88"/>
@@ -6885,7 +6917,7 @@
         <f t="shared" ref="J28:J31" si="5">SUM(D28:E28)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="107">
+      <c r="K28" s="105">
         <f>SUM(J28:J31)</f>
         <v>3</v>
       </c>
@@ -6914,7 +6946,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K29" s="108"/>
+      <c r="K29" s="106"/>
       <c r="L29" s="25"/>
       <c r="M29" s="28"/>
       <c r="N29" s="88"/>
@@ -6944,7 +6976,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K30" s="108"/>
+      <c r="K30" s="106"/>
       <c r="L30" s="25"/>
       <c r="M30" s="28"/>
       <c r="N30" s="87"/>
@@ -6974,7 +7006,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K31" s="108"/>
+      <c r="K31" s="106"/>
       <c r="L31" s="25"/>
       <c r="M31" s="28"/>
       <c r="N31" s="89"/>
@@ -7034,7 +7066,7 @@
         <f t="shared" ref="J34:J37" si="7">SUM(D34:E34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="107">
+      <c r="K34" s="105">
         <f>SUM(J34:J37)</f>
         <v>2</v>
       </c>
@@ -7063,7 +7095,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K35" s="108"/>
+      <c r="K35" s="106"/>
       <c r="L35" s="25"/>
       <c r="M35" s="28"/>
       <c r="N35" s="87"/>
@@ -7093,7 +7125,7 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="K36" s="108"/>
+      <c r="K36" s="106"/>
       <c r="L36" s="25"/>
       <c r="M36" s="28"/>
       <c r="N36" s="89"/>
@@ -7119,7 +7151,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K37" s="109"/>
+      <c r="K37" s="107"/>
       <c r="L37" s="25"/>
       <c r="M37" s="28"/>
       <c r="N37" s="89"/>
@@ -7197,7 +7229,7 @@
         <f t="shared" ref="J41:J45" si="9">SUM(D41:E41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="107">
+      <c r="K41" s="105">
         <f>SUM(J41:J46)</f>
         <v>0</v>
       </c>
@@ -7226,7 +7258,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K42" s="108"/>
+      <c r="K42" s="106"/>
       <c r="L42" s="25"/>
       <c r="M42" s="28"/>
       <c r="N42" s="89"/>
@@ -7252,7 +7284,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K43" s="108"/>
+      <c r="K43" s="106"/>
       <c r="L43" s="25"/>
       <c r="M43" s="28"/>
       <c r="N43" s="89"/>
@@ -7278,7 +7310,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K44" s="108"/>
+      <c r="K44" s="106"/>
       <c r="L44" s="25"/>
       <c r="M44" s="28"/>
       <c r="N44" s="89"/>
@@ -7304,7 +7336,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K45" s="108"/>
+      <c r="K45" s="106"/>
       <c r="L45" s="25"/>
       <c r="M45" s="28"/>
       <c r="N45" s="89"/>
@@ -7330,7 +7362,7 @@
         <f t="shared" ref="J46" si="10">SUM(D46:E46)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="109"/>
+      <c r="K46" s="107"/>
       <c r="L46" s="25"/>
       <c r="M46" s="28"/>
       <c r="N46" s="87"/>
@@ -7394,7 +7426,7 @@
         <f t="shared" ref="J49:J59" si="12">SUM(D49:E49)</f>
         <v>2</v>
       </c>
-      <c r="K49" s="113">
+      <c r="K49" s="108">
         <f>SUM(J49:J60)</f>
         <v>8</v>
       </c>
@@ -7427,7 +7459,7 @@
         <f t="shared" ref="J50" si="14">SUM(D50:E50)</f>
         <v>4</v>
       </c>
-      <c r="K50" s="114"/>
+      <c r="K50" s="109"/>
       <c r="L50" s="25"/>
       <c r="M50" s="28"/>
       <c r="N50" s="87"/>
@@ -7453,7 +7485,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K51" s="114"/>
+      <c r="K51" s="109"/>
       <c r="L51" s="25"/>
       <c r="M51" s="28"/>
       <c r="N51" s="88"/>
@@ -7479,7 +7511,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K52" s="114"/>
+      <c r="K52" s="109"/>
       <c r="L52" s="25"/>
       <c r="M52" s="28"/>
       <c r="N52" s="87"/>
@@ -7505,7 +7537,7 @@
         <f t="shared" ref="J53" si="16">SUM(D53:E53)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="114"/>
+      <c r="K53" s="109"/>
       <c r="L53" s="25"/>
       <c r="M53" s="28"/>
       <c r="N53" s="87"/>
@@ -7531,7 +7563,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K54" s="114"/>
+      <c r="K54" s="109"/>
       <c r="L54" s="25"/>
       <c r="M54" s="28"/>
       <c r="N54" s="87"/>
@@ -7557,7 +7589,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K55" s="114"/>
+      <c r="K55" s="109"/>
       <c r="L55" s="25"/>
       <c r="M55" s="28"/>
       <c r="N55" s="87"/>
@@ -7583,7 +7615,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K56" s="114"/>
+      <c r="K56" s="109"/>
       <c r="L56" s="25"/>
       <c r="M56" s="28"/>
       <c r="N56" s="87"/>
@@ -7609,7 +7641,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K57" s="114"/>
+      <c r="K57" s="109"/>
       <c r="L57" s="25"/>
       <c r="M57" s="28"/>
       <c r="N57" s="87"/>
@@ -7635,7 +7667,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K58" s="114"/>
+      <c r="K58" s="109"/>
       <c r="L58" s="25"/>
       <c r="M58" s="28"/>
       <c r="N58" s="87"/>
@@ -7661,7 +7693,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K59" s="114"/>
+      <c r="K59" s="109"/>
       <c r="L59" s="25"/>
       <c r="M59" s="28"/>
       <c r="N59" s="87"/>
@@ -7691,7 +7723,7 @@
         <f>SUM(D60:E60)</f>
         <v>2</v>
       </c>
-      <c r="K60" s="115"/>
+      <c r="K60" s="110"/>
       <c r="L60" s="25"/>
       <c r="M60" s="28"/>
       <c r="N60" s="87"/>
@@ -7767,7 +7799,7 @@
         <f t="shared" ref="J64:J67" si="18">SUM(D64:E64)</f>
         <v>0</v>
       </c>
-      <c r="K64" s="113">
+      <c r="K64" s="108">
         <f>SUM(J64:J67)</f>
         <v>2</v>
       </c>
@@ -7796,7 +7828,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K65" s="114"/>
+      <c r="K65" s="109"/>
       <c r="L65" s="25"/>
       <c r="M65" s="28"/>
       <c r="N65" s="87"/>
@@ -7826,7 +7858,7 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="K66" s="114"/>
+      <c r="K66" s="109"/>
       <c r="L66" s="25"/>
       <c r="M66" s="28"/>
       <c r="N66" s="87"/>
@@ -7852,7 +7884,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K67" s="115"/>
+      <c r="K67" s="110"/>
       <c r="L67" s="25"/>
       <c r="M67" s="28"/>
       <c r="N67" s="87"/>
@@ -7939,7 +7971,9 @@
     </row>
     <row r="72" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" s="11"/>
-      <c r="C72" s="45"/>
+      <c r="C72" s="84" t="s">
+        <v>97</v>
+      </c>
       <c r="D72" s="92"/>
       <c r="E72" s="19"/>
       <c r="F72" s="29"/>
@@ -7955,15 +7989,26 @@
     </row>
     <row r="73" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="11"/>
-      <c r="C73" s="45"/>
+      <c r="C73" s="45" t="s">
+        <v>98</v>
+      </c>
       <c r="D73" s="92"/>
       <c r="E73" s="19"/>
       <c r="F73" s="29"/>
       <c r="G73" s="30"/>
       <c r="H73" s="22"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="24"/>
+      <c r="I73" s="99">
+        <f t="shared" ref="I73" si="21">(J73*8)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="23">
+        <f t="shared" ref="J73" si="22">SUM(D73:E73)</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="91">
+        <f>J73</f>
+        <v>0</v>
+      </c>
       <c r="L73" s="25"/>
       <c r="M73" s="28"/>
       <c r="N73" s="87"/>
